--- a/app/tables/femaleClients/forms/client6Month/client6Month.xlsx
+++ b/app/tables/femaleClients/forms/client6Month/client6Month.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="31400" yWindow="1660" windowWidth="28800" windowHeight="16020" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="31780" yWindow="1840" windowWidth="25600" windowHeight="16020" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="679" uniqueCount="316">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="906" uniqueCount="337">
   <si>
     <t>type</t>
   </si>
@@ -975,13 +975,76 @@
   </si>
   <si>
     <t xml:space="preserve">Postpartum hemorrhage </t>
+  </si>
+  <si>
+    <t>a0</t>
+  </si>
+  <si>
+    <t>a1</t>
+  </si>
+  <si>
+    <t>a2</t>
+  </si>
+  <si>
+    <t>a3</t>
+  </si>
+  <si>
+    <t>a4</t>
+  </si>
+  <si>
+    <t>a5</t>
+  </si>
+  <si>
+    <t>a888</t>
+  </si>
+  <si>
+    <t>a666</t>
+  </si>
+  <si>
+    <t>a777</t>
+  </si>
+  <si>
+    <t>a999</t>
+  </si>
+  <si>
+    <t>a6</t>
+  </si>
+  <si>
+    <t>a7</t>
+  </si>
+  <si>
+    <t>a8</t>
+  </si>
+  <si>
+    <t>a9</t>
+  </si>
+  <si>
+    <t>a10</t>
+  </si>
+  <si>
+    <t>a11</t>
+  </si>
+  <si>
+    <t>a12</t>
+  </si>
+  <si>
+    <t>a13</t>
+  </si>
+  <si>
+    <t>a14</t>
+  </si>
+  <si>
+    <t>a15</t>
+  </si>
+  <si>
+    <t>a16</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -999,6 +1062,22 @@
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1042,9 +1121,13 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -1088,7 +1171,11 @@
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="6">
+    <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="5" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="4" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1"/>
   </cellStyles>
@@ -2261,18 +2348,17 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C231"/>
+  <dimension ref="A1:D231"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A183" workbookViewId="0">
-      <selection activeCell="A225" sqref="A225:XFD231"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="21.5" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="16.83203125" style="2" customWidth="1"/>
-    <col min="2" max="2" width="12.33203125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="21.5" style="2"/>
     <col min="3" max="3" width="51.1640625" style="2" customWidth="1"/>
-    <col min="4" max="4" width="50.33203125" style="2" customWidth="1"/>
     <col min="5" max="16384" width="21.5" style="2"/>
   </cols>
   <sheetData>
@@ -2280,7 +2366,7 @@
       <c r="A1" s="1" t="s">
         <v>294</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>293</v>
       </c>
       <c r="C1" s="1" t="s">
@@ -2291,8 +2377,8 @@
       <c r="A2" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B2" s="2">
-        <v>0</v>
+      <c r="B2" s="2" t="s">
+        <v>316</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>19</v>
@@ -2302,8 +2388,8 @@
       <c r="A3" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B3" s="2">
-        <v>1</v>
+      <c r="B3" s="2" t="s">
+        <v>317</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>20</v>
@@ -2313,8 +2399,8 @@
       <c r="A4" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B4" s="2">
-        <v>2</v>
+      <c r="B4" s="2" t="s">
+        <v>318</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>27</v>
@@ -2324,8 +2410,8 @@
       <c r="A5" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B5" s="2">
-        <v>3</v>
+      <c r="B5" s="2" t="s">
+        <v>319</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>28</v>
@@ -2335,8 +2421,8 @@
       <c r="A6" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B6" s="1">
-        <v>1</v>
+      <c r="B6" s="2" t="s">
+        <v>317</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>29</v>
@@ -2346,8 +2432,8 @@
       <c r="A7" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B7" s="1">
-        <v>2</v>
+      <c r="B7" s="2" t="s">
+        <v>318</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>30</v>
@@ -2357,8 +2443,8 @@
       <c r="A8" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="B8" s="1">
-        <v>1</v>
+      <c r="B8" s="2" t="s">
+        <v>317</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>32</v>
@@ -2368,8 +2454,8 @@
       <c r="A9" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="B9" s="1">
-        <v>2</v>
+      <c r="B9" s="2" t="s">
+        <v>318</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>33</v>
@@ -2379,8 +2465,8 @@
       <c r="A10" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="B10" s="1">
-        <v>3</v>
+      <c r="B10" s="2" t="s">
+        <v>319</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>34</v>
@@ -2390,8 +2476,8 @@
       <c r="A11" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="B11" s="1">
-        <v>4</v>
+      <c r="B11" s="2" t="s">
+        <v>320</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>35</v>
@@ -2401,8 +2487,8 @@
       <c r="A12" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="B12" s="1">
-        <v>5</v>
+      <c r="B12" s="2" t="s">
+        <v>321</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>37</v>
@@ -2412,8 +2498,8 @@
       <c r="A13" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="B13" s="1">
-        <v>888</v>
+      <c r="B13" s="2" t="s">
+        <v>322</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>36</v>
@@ -2423,8 +2509,8 @@
       <c r="A14" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="B14" s="2">
-        <v>1</v>
+      <c r="B14" s="2" t="s">
+        <v>317</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>15</v>
@@ -2434,8 +2520,8 @@
       <c r="A15" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="B15" s="2">
-        <v>0</v>
+      <c r="B15" s="2" t="s">
+        <v>316</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>16</v>
@@ -2445,8 +2531,8 @@
       <c r="A16" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="B16" s="1">
-        <v>888</v>
+      <c r="B16" s="2" t="s">
+        <v>322</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>36</v>
@@ -2456,8 +2542,8 @@
       <c r="A17" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="B17" s="1">
-        <v>1</v>
+      <c r="B17" s="2" t="s">
+        <v>317</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>15</v>
@@ -2467,8 +2553,8 @@
       <c r="A18" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="B18" s="1">
-        <v>666</v>
+      <c r="B18" s="2" t="s">
+        <v>323</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>42</v>
@@ -2478,8 +2564,8 @@
       <c r="A19" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="B19" s="1">
-        <v>777</v>
+      <c r="B19" s="2" t="s">
+        <v>324</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>43</v>
@@ -2489,8 +2575,8 @@
       <c r="A20" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="B20" s="1">
-        <v>888</v>
+      <c r="B20" s="2" t="s">
+        <v>322</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>23</v>
@@ -2500,8 +2586,8 @@
       <c r="A21" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="B21" s="1">
-        <v>999</v>
+      <c r="B21" s="2" t="s">
+        <v>325</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>22</v>
@@ -2511,8 +2597,8 @@
       <c r="A22" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="B22" s="2">
-        <v>0</v>
+      <c r="B22" s="2" t="s">
+        <v>316</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>19</v>
@@ -2522,8 +2608,8 @@
       <c r="A23" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="B23" s="2">
-        <v>1</v>
+      <c r="B23" s="2" t="s">
+        <v>317</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>20</v>
@@ -2533,8 +2619,8 @@
       <c r="A24" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="B24" s="2">
-        <v>2</v>
+      <c r="B24" s="2" t="s">
+        <v>318</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>44</v>
@@ -2544,8 +2630,8 @@
       <c r="A25" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="B25" s="2">
-        <v>888</v>
+      <c r="B25" s="2" t="s">
+        <v>322</v>
       </c>
       <c r="C25" s="2" t="s">
         <v>23</v>
@@ -2555,8 +2641,8 @@
       <c r="A26" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="B26" s="1">
-        <v>999</v>
+      <c r="B26" s="2" t="s">
+        <v>325</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>22</v>
@@ -2566,8 +2652,8 @@
       <c r="A27" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="B27" s="2">
-        <v>1</v>
+      <c r="B27" s="2" t="s">
+        <v>317</v>
       </c>
       <c r="C27" s="2" t="s">
         <v>15</v>
@@ -2577,8 +2663,8 @@
       <c r="A28" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="B28" s="2">
-        <v>0</v>
+      <c r="B28" s="2" t="s">
+        <v>316</v>
       </c>
       <c r="C28" s="2" t="s">
         <v>16</v>
@@ -2588,8 +2674,8 @@
       <c r="A29" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="B29" s="1">
-        <v>888</v>
+      <c r="B29" s="2" t="s">
+        <v>322</v>
       </c>
       <c r="C29" s="1" t="s">
         <v>36</v>
@@ -2599,8 +2685,8 @@
       <c r="A30" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="B30" s="1">
-        <v>999</v>
+      <c r="B30" s="2" t="s">
+        <v>325</v>
       </c>
       <c r="C30" s="1" t="s">
         <v>22</v>
@@ -2610,8 +2696,8 @@
       <c r="A31" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B31" s="2">
-        <v>1</v>
+      <c r="B31" s="2" t="s">
+        <v>317</v>
       </c>
       <c r="C31" s="2" t="s">
         <v>15</v>
@@ -2621,8 +2707,8 @@
       <c r="A32" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B32" s="2">
-        <v>0</v>
+      <c r="B32" s="2" t="s">
+        <v>316</v>
       </c>
       <c r="C32" s="2" t="s">
         <v>16</v>
@@ -2632,8 +2718,8 @@
       <c r="A33" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="B33" s="2">
-        <v>1</v>
+      <c r="B33" s="2" t="s">
+        <v>317</v>
       </c>
       <c r="C33" s="2" t="s">
         <v>47</v>
@@ -2643,8 +2729,8 @@
       <c r="A34" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="B34" s="2">
-        <v>2</v>
+      <c r="B34" s="2" t="s">
+        <v>318</v>
       </c>
       <c r="C34" s="2" t="s">
         <v>48</v>
@@ -2654,8 +2740,8 @@
       <c r="A35" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="B35" s="1">
-        <v>888</v>
+      <c r="B35" s="2" t="s">
+        <v>322</v>
       </c>
       <c r="C35" s="1" t="s">
         <v>36</v>
@@ -2665,8 +2751,8 @@
       <c r="A36" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="B36" s="1">
-        <v>999</v>
+      <c r="B36" s="2" t="s">
+        <v>325</v>
       </c>
       <c r="C36" s="1" t="s">
         <v>22</v>
@@ -2676,8 +2762,8 @@
       <c r="A37" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="B37" s="2">
-        <v>1</v>
+      <c r="B37" s="2" t="s">
+        <v>317</v>
       </c>
       <c r="C37" s="2" t="s">
         <v>176</v>
@@ -2687,8 +2773,8 @@
       <c r="A38" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="B38" s="2">
-        <v>0</v>
+      <c r="B38" s="2" t="s">
+        <v>316</v>
       </c>
       <c r="C38" s="2" t="s">
         <v>51</v>
@@ -2698,8 +2784,8 @@
       <c r="A39" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="B39" s="2">
-        <v>2</v>
+      <c r="B39" s="2" t="s">
+        <v>318</v>
       </c>
       <c r="C39" s="2" t="s">
         <v>52</v>
@@ -2709,8 +2795,8 @@
       <c r="A40" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="B40" s="1">
-        <v>888</v>
+      <c r="B40" s="2" t="s">
+        <v>322</v>
       </c>
       <c r="C40" s="1" t="s">
         <v>36</v>
@@ -2720,8 +2806,8 @@
       <c r="A41" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="B41" s="1">
-        <v>999</v>
+      <c r="B41" s="2" t="s">
+        <v>325</v>
       </c>
       <c r="C41" s="1" t="s">
         <v>22</v>
@@ -2731,8 +2817,8 @@
       <c r="A42" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="B42" s="1">
-        <v>1</v>
+      <c r="B42" s="2" t="s">
+        <v>317</v>
       </c>
       <c r="C42" s="1" t="s">
         <v>54</v>
@@ -2742,8 +2828,8 @@
       <c r="A43" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="B43" s="1">
-        <v>2</v>
+      <c r="B43" s="2" t="s">
+        <v>318</v>
       </c>
       <c r="C43" s="1" t="s">
         <v>55</v>
@@ -2753,8 +2839,8 @@
       <c r="A44" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="B44" s="1">
-        <v>3</v>
+      <c r="B44" s="2" t="s">
+        <v>319</v>
       </c>
       <c r="C44" s="1" t="s">
         <v>56</v>
@@ -2764,8 +2850,8 @@
       <c r="A45" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="B45" s="1">
-        <v>4</v>
+      <c r="B45" s="2" t="s">
+        <v>320</v>
       </c>
       <c r="C45" s="1" t="s">
         <v>21</v>
@@ -2775,8 +2861,8 @@
       <c r="A46" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="B46" s="1">
-        <v>888</v>
+      <c r="B46" s="2" t="s">
+        <v>322</v>
       </c>
       <c r="C46" s="1" t="s">
         <v>36</v>
@@ -2786,8 +2872,8 @@
       <c r="A47" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="B47" s="1">
-        <v>999</v>
+      <c r="B47" s="2" t="s">
+        <v>325</v>
       </c>
       <c r="C47" s="1" t="s">
         <v>22</v>
@@ -2797,8 +2883,8 @@
       <c r="A48" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="B48" s="2">
-        <v>1</v>
+      <c r="B48" s="2" t="s">
+        <v>317</v>
       </c>
       <c r="C48" s="2" t="s">
         <v>177</v>
@@ -2808,8 +2894,8 @@
       <c r="A49" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="B49" s="2">
-        <v>0</v>
+      <c r="B49" s="2" t="s">
+        <v>316</v>
       </c>
       <c r="C49" s="2" t="s">
         <v>58</v>
@@ -2819,8 +2905,8 @@
       <c r="A50" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="B50" s="2">
-        <v>2</v>
+      <c r="B50" s="2" t="s">
+        <v>318</v>
       </c>
       <c r="C50" s="2" t="s">
         <v>178</v>
@@ -2830,8 +2916,8 @@
       <c r="A51" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="B51" s="1">
-        <v>888</v>
+      <c r="B51" s="2" t="s">
+        <v>322</v>
       </c>
       <c r="C51" s="1" t="s">
         <v>36</v>
@@ -2841,8 +2927,8 @@
       <c r="A52" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="B52" s="1">
-        <v>999</v>
+      <c r="B52" s="2" t="s">
+        <v>325</v>
       </c>
       <c r="C52" s="1" t="s">
         <v>22</v>
@@ -2852,8 +2938,8 @@
       <c r="A53" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="B53" s="1">
-        <v>1</v>
+      <c r="B53" s="2" t="s">
+        <v>317</v>
       </c>
       <c r="C53" s="2" t="s">
         <v>60</v>
@@ -2863,8 +2949,8 @@
       <c r="A54" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="B54" s="1">
-        <v>2</v>
+      <c r="B54" s="2" t="s">
+        <v>318</v>
       </c>
       <c r="C54" s="2" t="s">
         <v>61</v>
@@ -2874,8 +2960,8 @@
       <c r="A55" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="B55" s="1">
-        <v>3</v>
+      <c r="B55" s="2" t="s">
+        <v>319</v>
       </c>
       <c r="C55" s="2" t="s">
         <v>62</v>
@@ -2885,8 +2971,8 @@
       <c r="A56" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="B56" s="1">
-        <v>4</v>
+      <c r="B56" s="2" t="s">
+        <v>320</v>
       </c>
       <c r="C56" s="2" t="s">
         <v>63</v>
@@ -2896,8 +2982,8 @@
       <c r="A57" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="B57" s="1">
-        <v>5</v>
+      <c r="B57" s="2" t="s">
+        <v>321</v>
       </c>
       <c r="C57" s="2" t="s">
         <v>64</v>
@@ -2907,8 +2993,8 @@
       <c r="A58" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="B58" s="1">
-        <v>6</v>
+      <c r="B58" s="2" t="s">
+        <v>326</v>
       </c>
       <c r="C58" s="2" t="s">
         <v>65</v>
@@ -2918,8 +3004,8 @@
       <c r="A59" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="B59" s="1">
-        <v>7</v>
+      <c r="B59" s="2" t="s">
+        <v>327</v>
       </c>
       <c r="C59" s="2" t="s">
         <v>37</v>
@@ -2929,8 +3015,8 @@
       <c r="A60" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="B60" s="1">
-        <v>888</v>
+      <c r="B60" s="2" t="s">
+        <v>322</v>
       </c>
       <c r="C60" s="2" t="s">
         <v>66</v>
@@ -2940,8 +3026,8 @@
       <c r="A61" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="B61" s="1">
-        <v>1</v>
+      <c r="B61" s="2" t="s">
+        <v>317</v>
       </c>
       <c r="C61" s="2" t="s">
         <v>60</v>
@@ -2951,8 +3037,8 @@
       <c r="A62" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="B62" s="1">
-        <v>2</v>
+      <c r="B62" s="2" t="s">
+        <v>318</v>
       </c>
       <c r="C62" s="2" t="s">
         <v>61</v>
@@ -2962,8 +3048,8 @@
       <c r="A63" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="B63" s="1">
-        <v>3</v>
+      <c r="B63" s="2" t="s">
+        <v>319</v>
       </c>
       <c r="C63" s="2" t="s">
         <v>62</v>
@@ -2973,8 +3059,8 @@
       <c r="A64" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="B64" s="1">
-        <v>4</v>
+      <c r="B64" s="2" t="s">
+        <v>320</v>
       </c>
       <c r="C64" s="2" t="s">
         <v>63</v>
@@ -2984,8 +3070,8 @@
       <c r="A65" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="B65" s="1">
-        <v>5</v>
+      <c r="B65" s="2" t="s">
+        <v>321</v>
       </c>
       <c r="C65" s="2" t="s">
         <v>64</v>
@@ -2995,8 +3081,8 @@
       <c r="A66" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="B66" s="1">
-        <v>6</v>
+      <c r="B66" s="2" t="s">
+        <v>326</v>
       </c>
       <c r="C66" s="2" t="s">
         <v>65</v>
@@ -3006,8 +3092,8 @@
       <c r="A67" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="B67" s="1">
-        <v>7</v>
+      <c r="B67" s="2" t="s">
+        <v>327</v>
       </c>
       <c r="C67" s="2" t="s">
         <v>37</v>
@@ -3017,8 +3103,8 @@
       <c r="A68" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="B68" s="1">
-        <v>8</v>
+      <c r="B68" s="2" t="s">
+        <v>328</v>
       </c>
       <c r="C68" s="2" t="s">
         <v>68</v>
@@ -3028,8 +3114,8 @@
       <c r="A69" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="B69" s="1">
-        <v>888</v>
+      <c r="B69" s="2" t="s">
+        <v>322</v>
       </c>
       <c r="C69" s="2" t="s">
         <v>66</v>
@@ -3039,8 +3125,8 @@
       <c r="A70" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="B70" s="2">
-        <v>1</v>
+      <c r="B70" s="2" t="s">
+        <v>317</v>
       </c>
       <c r="C70" s="2" t="s">
         <v>15</v>
@@ -3050,8 +3136,8 @@
       <c r="A71" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="B71" s="2">
-        <v>0</v>
+      <c r="B71" s="2" t="s">
+        <v>316</v>
       </c>
       <c r="C71" s="2" t="s">
         <v>16</v>
@@ -3061,8 +3147,8 @@
       <c r="A72" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="B72" s="1">
-        <v>666</v>
+      <c r="B72" s="2" t="s">
+        <v>323</v>
       </c>
       <c r="C72" s="2" t="s">
         <v>70</v>
@@ -3072,8 +3158,8 @@
       <c r="A73" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="B73" s="1">
-        <v>888</v>
+      <c r="B73" s="2" t="s">
+        <v>322</v>
       </c>
       <c r="C73" s="1" t="s">
         <v>36</v>
@@ -3083,8 +3169,8 @@
       <c r="A74" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="B74" s="1">
-        <v>999</v>
+      <c r="B74" s="2" t="s">
+        <v>325</v>
       </c>
       <c r="C74" s="1" t="s">
         <v>22</v>
@@ -3094,7 +3180,7 @@
       <c r="A75" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="B75" s="1" t="s">
+      <c r="B75" s="2" t="s">
         <v>168</v>
       </c>
       <c r="C75" s="1" t="s">
@@ -3105,7 +3191,7 @@
       <c r="A76" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="B76" s="1" t="s">
+      <c r="B76" s="2" t="s">
         <v>169</v>
       </c>
       <c r="C76" s="2" t="s">
@@ -3116,7 +3202,7 @@
       <c r="A77" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="B77" s="1" t="s">
+      <c r="B77" s="2" t="s">
         <v>170</v>
       </c>
       <c r="C77" s="1" t="s">
@@ -3127,8 +3213,8 @@
       <c r="A78" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="B78" s="1">
-        <v>888</v>
+      <c r="B78" s="2" t="s">
+        <v>322</v>
       </c>
       <c r="C78" s="1" t="s">
         <v>36</v>
@@ -3138,8 +3224,8 @@
       <c r="A79" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="B79" s="1">
-        <v>999</v>
+      <c r="B79" s="2" t="s">
+        <v>325</v>
       </c>
       <c r="C79" s="1" t="s">
         <v>22</v>
@@ -3149,8 +3235,8 @@
       <c r="A80" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="B80" s="1">
-        <v>1</v>
+      <c r="B80" s="2" t="s">
+        <v>317</v>
       </c>
       <c r="C80" s="2" t="s">
         <v>74</v>
@@ -3160,8 +3246,8 @@
       <c r="A81" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="B81" s="1">
-        <v>2</v>
+      <c r="B81" s="2" t="s">
+        <v>318</v>
       </c>
       <c r="C81" s="2" t="s">
         <v>75</v>
@@ -3171,8 +3257,8 @@
       <c r="A82" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="B82" s="1">
-        <v>3</v>
+      <c r="B82" s="2" t="s">
+        <v>319</v>
       </c>
       <c r="C82" s="1" t="s">
         <v>76</v>
@@ -3182,8 +3268,8 @@
       <c r="A83" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="B83" s="1">
-        <v>888</v>
+      <c r="B83" s="2" t="s">
+        <v>322</v>
       </c>
       <c r="C83" s="1" t="s">
         <v>23</v>
@@ -3193,8 +3279,8 @@
       <c r="A84" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="B84" s="1">
-        <v>999</v>
+      <c r="B84" s="2" t="s">
+        <v>325</v>
       </c>
       <c r="C84" s="1" t="s">
         <v>22</v>
@@ -3204,8 +3290,8 @@
       <c r="A85" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="B85" s="1">
-        <v>1</v>
+      <c r="B85" s="2" t="s">
+        <v>317</v>
       </c>
       <c r="C85" s="1" t="s">
         <v>78</v>
@@ -3215,8 +3301,8 @@
       <c r="A86" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="B86" s="1">
-        <v>2</v>
+      <c r="B86" s="2" t="s">
+        <v>318</v>
       </c>
       <c r="C86" s="1" t="s">
         <v>79</v>
@@ -3226,8 +3312,8 @@
       <c r="A87" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="B87" s="1">
-        <v>3</v>
+      <c r="B87" s="2" t="s">
+        <v>319</v>
       </c>
       <c r="C87" s="1" t="s">
         <v>80</v>
@@ -3237,8 +3323,8 @@
       <c r="A88" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="B88" s="1">
-        <v>4</v>
+      <c r="B88" s="2" t="s">
+        <v>320</v>
       </c>
       <c r="C88" s="1" t="s">
         <v>81</v>
@@ -3248,8 +3334,8 @@
       <c r="A89" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="B89" s="1">
-        <v>5</v>
+      <c r="B89" s="2" t="s">
+        <v>321</v>
       </c>
       <c r="C89" s="1" t="s">
         <v>82</v>
@@ -3259,8 +3345,8 @@
       <c r="A90" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="B90" s="1">
-        <v>6</v>
+      <c r="B90" s="2" t="s">
+        <v>326</v>
       </c>
       <c r="C90" s="1" t="s">
         <v>21</v>
@@ -3270,8 +3356,8 @@
       <c r="A91" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="B91" s="1">
-        <v>888</v>
+      <c r="B91" s="2" t="s">
+        <v>322</v>
       </c>
       <c r="C91" s="1" t="s">
         <v>23</v>
@@ -3281,8 +3367,8 @@
       <c r="A92" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="B92" s="1">
-        <v>1</v>
+      <c r="B92" s="2" t="s">
+        <v>317</v>
       </c>
       <c r="C92" s="1" t="s">
         <v>83</v>
@@ -3292,8 +3378,8 @@
       <c r="A93" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="B93" s="1">
-        <v>2</v>
+      <c r="B93" s="2" t="s">
+        <v>318</v>
       </c>
       <c r="C93" s="1" t="s">
         <v>84</v>
@@ -3303,8 +3389,8 @@
       <c r="A94" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="B94" s="1">
-        <v>3</v>
+      <c r="B94" s="2" t="s">
+        <v>319</v>
       </c>
       <c r="C94" s="1" t="s">
         <v>85</v>
@@ -3314,8 +3400,8 @@
       <c r="A95" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="B95" s="1">
-        <v>4</v>
+      <c r="B95" s="2" t="s">
+        <v>320</v>
       </c>
       <c r="C95" s="1" t="s">
         <v>86</v>
@@ -3325,8 +3411,8 @@
       <c r="A96" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="B96" s="1">
-        <v>5</v>
+      <c r="B96" s="2" t="s">
+        <v>321</v>
       </c>
       <c r="C96" s="1" t="s">
         <v>87</v>
@@ -3336,8 +3422,8 @@
       <c r="A97" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="B97" s="1">
-        <v>6</v>
+      <c r="B97" s="2" t="s">
+        <v>326</v>
       </c>
       <c r="C97" s="1" t="s">
         <v>88</v>
@@ -3347,8 +3433,8 @@
       <c r="A98" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="B98" s="1">
-        <v>7</v>
+      <c r="B98" s="2" t="s">
+        <v>327</v>
       </c>
       <c r="C98" s="1" t="s">
         <v>89</v>
@@ -3358,8 +3444,8 @@
       <c r="A99" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="B99" s="1">
-        <v>8</v>
+      <c r="B99" s="2" t="s">
+        <v>328</v>
       </c>
       <c r="C99" s="1" t="s">
         <v>90</v>
@@ -3369,8 +3455,8 @@
       <c r="A100" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="B100" s="1">
-        <v>9</v>
+      <c r="B100" s="2" t="s">
+        <v>329</v>
       </c>
       <c r="C100" s="1" t="s">
         <v>91</v>
@@ -3380,8 +3466,8 @@
       <c r="A101" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="B101" s="1">
-        <v>10</v>
+      <c r="B101" s="2" t="s">
+        <v>330</v>
       </c>
       <c r="C101" s="1" t="s">
         <v>92</v>
@@ -3391,8 +3477,8 @@
       <c r="A102" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="B102" s="1">
-        <v>11</v>
+      <c r="B102" s="2" t="s">
+        <v>331</v>
       </c>
       <c r="C102" s="1" t="s">
         <v>93</v>
@@ -3402,8 +3488,8 @@
       <c r="A103" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="B103" s="1">
-        <v>12</v>
+      <c r="B103" s="2" t="s">
+        <v>332</v>
       </c>
       <c r="C103" s="1" t="s">
         <v>94</v>
@@ -3413,8 +3499,8 @@
       <c r="A104" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="B104" s="1">
-        <v>13</v>
+      <c r="B104" s="2" t="s">
+        <v>333</v>
       </c>
       <c r="C104" s="1" t="s">
         <v>95</v>
@@ -3424,8 +3510,8 @@
       <c r="A105" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="B105" s="1">
-        <v>14</v>
+      <c r="B105" s="2" t="s">
+        <v>334</v>
       </c>
       <c r="C105" s="1" t="s">
         <v>96</v>
@@ -3435,8 +3521,8 @@
       <c r="A106" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="B106" s="1">
-        <v>15</v>
+      <c r="B106" s="2" t="s">
+        <v>335</v>
       </c>
       <c r="C106" s="1" t="s">
         <v>21</v>
@@ -3446,8 +3532,8 @@
       <c r="A107" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="B107" s="1">
-        <v>16</v>
+      <c r="B107" s="2" t="s">
+        <v>336</v>
       </c>
       <c r="C107" s="1" t="s">
         <v>97</v>
@@ -3457,8 +3543,8 @@
       <c r="A108" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="B108" s="1">
-        <v>888</v>
+      <c r="B108" s="2" t="s">
+        <v>322</v>
       </c>
       <c r="C108" s="1" t="s">
         <v>23</v>
@@ -3468,8 +3554,8 @@
       <c r="A109" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="B109" s="1">
-        <v>1</v>
+      <c r="B109" s="2" t="s">
+        <v>317</v>
       </c>
       <c r="C109" s="1" t="s">
         <v>99</v>
@@ -3479,8 +3565,8 @@
       <c r="A110" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="B110" s="1">
-        <v>2</v>
+      <c r="B110" s="2" t="s">
+        <v>318</v>
       </c>
       <c r="C110" s="1" t="s">
         <v>100</v>
@@ -3490,8 +3576,8 @@
       <c r="A111" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="B111" s="1">
-        <v>3</v>
+      <c r="B111" s="2" t="s">
+        <v>319</v>
       </c>
       <c r="C111" s="1" t="s">
         <v>101</v>
@@ -3501,8 +3587,8 @@
       <c r="A112" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="B112" s="1">
-        <v>4</v>
+      <c r="B112" s="2" t="s">
+        <v>320</v>
       </c>
       <c r="C112" s="1" t="s">
         <v>102</v>
@@ -3512,8 +3598,8 @@
       <c r="A113" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="B113" s="1">
-        <v>5</v>
+      <c r="B113" s="2" t="s">
+        <v>321</v>
       </c>
       <c r="C113" s="1" t="s">
         <v>103</v>
@@ -3523,8 +3609,8 @@
       <c r="A114" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="B114" s="1">
-        <v>6</v>
+      <c r="B114" s="2" t="s">
+        <v>326</v>
       </c>
       <c r="C114" s="1" t="s">
         <v>104</v>
@@ -3534,8 +3620,8 @@
       <c r="A115" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="B115" s="1">
-        <v>7</v>
+      <c r="B115" s="2" t="s">
+        <v>327</v>
       </c>
       <c r="C115" s="1" t="s">
         <v>105</v>
@@ -3545,8 +3631,8 @@
       <c r="A116" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="B116" s="1">
-        <v>8</v>
+      <c r="B116" s="2" t="s">
+        <v>328</v>
       </c>
       <c r="C116" s="1" t="s">
         <v>106</v>
@@ -3556,8 +3642,8 @@
       <c r="A117" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="B117" s="1">
-        <v>9</v>
+      <c r="B117" s="2" t="s">
+        <v>329</v>
       </c>
       <c r="C117" s="1" t="s">
         <v>107</v>
@@ -3567,8 +3653,8 @@
       <c r="A118" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="B118" s="1">
-        <v>10</v>
+      <c r="B118" s="2" t="s">
+        <v>330</v>
       </c>
       <c r="C118" s="1" t="s">
         <v>108</v>
@@ -3578,8 +3664,8 @@
       <c r="A119" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="B119" s="1">
-        <v>11</v>
+      <c r="B119" s="2" t="s">
+        <v>331</v>
       </c>
       <c r="C119" s="1" t="s">
         <v>109</v>
@@ -3589,8 +3675,8 @@
       <c r="A120" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="B120" s="1">
-        <v>12</v>
+      <c r="B120" s="2" t="s">
+        <v>332</v>
       </c>
       <c r="C120" s="1" t="s">
         <v>110</v>
@@ -3600,8 +3686,8 @@
       <c r="A121" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="B121" s="1">
-        <v>13</v>
+      <c r="B121" s="2" t="s">
+        <v>333</v>
       </c>
       <c r="C121" s="1" t="s">
         <v>111</v>
@@ -3611,8 +3697,8 @@
       <c r="A122" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="B122" s="1">
-        <v>14</v>
+      <c r="B122" s="2" t="s">
+        <v>334</v>
       </c>
       <c r="C122" s="1" t="s">
         <v>112</v>
@@ -3622,8 +3708,8 @@
       <c r="A123" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="B123" s="1">
-        <v>15</v>
+      <c r="B123" s="2" t="s">
+        <v>335</v>
       </c>
       <c r="C123" s="1" t="s">
         <v>21</v>
@@ -3633,8 +3719,8 @@
       <c r="A124" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="B124" s="1">
-        <v>888</v>
+      <c r="B124" s="2" t="s">
+        <v>322</v>
       </c>
       <c r="C124" s="1" t="s">
         <v>23</v>
@@ -3644,8 +3730,8 @@
       <c r="A125" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="B125" s="1">
-        <v>1</v>
+      <c r="B125" s="2" t="s">
+        <v>317</v>
       </c>
       <c r="C125" s="1" t="s">
         <v>78</v>
@@ -3655,8 +3741,8 @@
       <c r="A126" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="B126" s="1">
-        <v>2</v>
+      <c r="B126" s="2" t="s">
+        <v>318</v>
       </c>
       <c r="C126" s="1" t="s">
         <v>79</v>
@@ -3666,8 +3752,8 @@
       <c r="A127" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="B127" s="1">
-        <v>3</v>
+      <c r="B127" s="2" t="s">
+        <v>319</v>
       </c>
       <c r="C127" s="1" t="s">
         <v>80</v>
@@ -3677,8 +3763,8 @@
       <c r="A128" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="B128" s="1">
-        <v>4</v>
+      <c r="B128" s="2" t="s">
+        <v>320</v>
       </c>
       <c r="C128" s="1" t="s">
         <v>81</v>
@@ -3688,8 +3774,8 @@
       <c r="A129" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="B129" s="1">
-        <v>5</v>
+      <c r="B129" s="2" t="s">
+        <v>321</v>
       </c>
       <c r="C129" s="1" t="s">
         <v>82</v>
@@ -3699,8 +3785,8 @@
       <c r="A130" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="B130" s="1">
-        <v>6</v>
+      <c r="B130" s="2" t="s">
+        <v>326</v>
       </c>
       <c r="C130" s="1" t="s">
         <v>21</v>
@@ -3710,8 +3796,8 @@
       <c r="A131" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="B131" s="1">
-        <v>888</v>
+      <c r="B131" s="2" t="s">
+        <v>322</v>
       </c>
       <c r="C131" s="1" t="s">
         <v>23</v>
@@ -3721,8 +3807,8 @@
       <c r="A132" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="B132" s="1">
-        <v>1</v>
+      <c r="B132" s="2" t="s">
+        <v>317</v>
       </c>
       <c r="C132" s="1" t="s">
         <v>115</v>
@@ -3732,8 +3818,8 @@
       <c r="A133" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="B133" s="1">
-        <v>0</v>
+      <c r="B133" s="2" t="s">
+        <v>316</v>
       </c>
       <c r="C133" s="1" t="s">
         <v>116</v>
@@ -3743,8 +3829,8 @@
       <c r="A134" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="B134" s="1">
-        <v>888</v>
+      <c r="B134" s="2" t="s">
+        <v>322</v>
       </c>
       <c r="C134" s="1" t="s">
         <v>23</v>
@@ -3754,8 +3840,8 @@
       <c r="A135" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="B135" s="1">
-        <v>999</v>
+      <c r="B135" s="2" t="s">
+        <v>325</v>
       </c>
       <c r="C135" s="1" t="s">
         <v>22</v>
@@ -3765,8 +3851,8 @@
       <c r="A136" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="B136" s="1">
-        <v>0</v>
+      <c r="B136" s="2" t="s">
+        <v>316</v>
       </c>
       <c r="C136" s="1" t="s">
         <v>118</v>
@@ -3776,8 +3862,8 @@
       <c r="A137" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="B137" s="1">
-        <v>1</v>
+      <c r="B137" s="2" t="s">
+        <v>317</v>
       </c>
       <c r="C137" s="1" t="s">
         <v>119</v>
@@ -3787,8 +3873,8 @@
       <c r="A138" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="B138" s="1">
-        <v>2</v>
+      <c r="B138" s="2" t="s">
+        <v>318</v>
       </c>
       <c r="C138" s="1" t="s">
         <v>120</v>
@@ -3798,8 +3884,8 @@
       <c r="A139" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="B139" s="2">
-        <v>888</v>
+      <c r="B139" s="2" t="s">
+        <v>322</v>
       </c>
       <c r="C139" s="2" t="s">
         <v>23</v>
@@ -3809,8 +3895,8 @@
       <c r="A140" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="B140" s="2">
-        <v>0</v>
+      <c r="B140" s="2" t="s">
+        <v>316</v>
       </c>
       <c r="C140" s="2" t="s">
         <v>122</v>
@@ -3820,8 +3906,8 @@
       <c r="A141" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="B141" s="2">
-        <v>1</v>
+      <c r="B141" s="2" t="s">
+        <v>317</v>
       </c>
       <c r="C141" s="2" t="s">
         <v>83</v>
@@ -3831,8 +3917,8 @@
       <c r="A142" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="B142" s="2">
-        <v>2</v>
+      <c r="B142" s="2" t="s">
+        <v>318</v>
       </c>
       <c r="C142" s="2" t="s">
         <v>84</v>
@@ -3842,8 +3928,8 @@
       <c r="A143" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="B143" s="2">
-        <v>3</v>
+      <c r="B143" s="2" t="s">
+        <v>319</v>
       </c>
       <c r="C143" s="2" t="s">
         <v>85</v>
@@ -3853,8 +3939,8 @@
       <c r="A144" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="B144" s="2">
-        <v>4</v>
+      <c r="B144" s="2" t="s">
+        <v>320</v>
       </c>
       <c r="C144" s="2" t="s">
         <v>86</v>
@@ -3864,8 +3950,8 @@
       <c r="A145" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="B145" s="2">
-        <v>5</v>
+      <c r="B145" s="2" t="s">
+        <v>321</v>
       </c>
       <c r="C145" s="2" t="s">
         <v>87</v>
@@ -3875,8 +3961,8 @@
       <c r="A146" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="B146" s="2">
-        <v>6</v>
+      <c r="B146" s="2" t="s">
+        <v>326</v>
       </c>
       <c r="C146" s="2" t="s">
         <v>88</v>
@@ -3886,8 +3972,8 @@
       <c r="A147" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="B147" s="2">
-        <v>7</v>
+      <c r="B147" s="2" t="s">
+        <v>327</v>
       </c>
       <c r="C147" s="2" t="s">
         <v>89</v>
@@ -3897,8 +3983,8 @@
       <c r="A148" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="B148" s="2">
-        <v>8</v>
+      <c r="B148" s="2" t="s">
+        <v>328</v>
       </c>
       <c r="C148" s="2" t="s">
         <v>90</v>
@@ -3908,8 +3994,8 @@
       <c r="A149" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="B149" s="2">
-        <v>9</v>
+      <c r="B149" s="2" t="s">
+        <v>329</v>
       </c>
       <c r="C149" s="2" t="s">
         <v>91</v>
@@ -3919,8 +4005,8 @@
       <c r="A150" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="B150" s="2">
-        <v>10</v>
+      <c r="B150" s="2" t="s">
+        <v>330</v>
       </c>
       <c r="C150" s="2" t="s">
         <v>92</v>
@@ -3930,8 +4016,8 @@
       <c r="A151" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="B151" s="2">
-        <v>11</v>
+      <c r="B151" s="2" t="s">
+        <v>331</v>
       </c>
       <c r="C151" s="2" t="s">
         <v>93</v>
@@ -3941,8 +4027,8 @@
       <c r="A152" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="B152" s="2">
-        <v>12</v>
+      <c r="B152" s="2" t="s">
+        <v>332</v>
       </c>
       <c r="C152" s="2" t="s">
         <v>94</v>
@@ -3952,8 +4038,8 @@
       <c r="A153" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="B153" s="2">
-        <v>13</v>
+      <c r="B153" s="2" t="s">
+        <v>333</v>
       </c>
       <c r="C153" s="2" t="s">
         <v>95</v>
@@ -3963,8 +4049,8 @@
       <c r="A154" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="B154" s="2">
-        <v>14</v>
+      <c r="B154" s="2" t="s">
+        <v>334</v>
       </c>
       <c r="C154" s="2" t="s">
         <v>21</v>
@@ -3974,8 +4060,8 @@
       <c r="A155" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="B155" s="2">
-        <v>888</v>
+      <c r="B155" s="2" t="s">
+        <v>322</v>
       </c>
       <c r="C155" s="2" t="s">
         <v>23</v>
@@ -3985,8 +4071,8 @@
       <c r="A156" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="B156" s="2">
-        <v>4</v>
+      <c r="B156" s="2" t="s">
+        <v>320</v>
       </c>
       <c r="C156" s="2" t="s">
         <v>125</v>
@@ -3996,8 +4082,8 @@
       <c r="A157" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="B157" s="2">
-        <v>3</v>
+      <c r="B157" s="2" t="s">
+        <v>319</v>
       </c>
       <c r="C157" s="2" t="s">
         <v>126</v>
@@ -4007,8 +4093,8 @@
       <c r="A158" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="B158" s="2">
-        <v>2</v>
+      <c r="B158" s="2" t="s">
+        <v>318</v>
       </c>
       <c r="C158" s="2" t="s">
         <v>127</v>
@@ -4018,8 +4104,8 @@
       <c r="A159" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="B159" s="2">
-        <v>1</v>
+      <c r="B159" s="2" t="s">
+        <v>317</v>
       </c>
       <c r="C159" s="2" t="s">
         <v>128</v>
@@ -4029,8 +4115,8 @@
       <c r="A160" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="B160" s="2">
-        <v>0</v>
+      <c r="B160" s="2" t="s">
+        <v>316</v>
       </c>
       <c r="C160" s="2" t="s">
         <v>118</v>
@@ -4040,8 +4126,8 @@
       <c r="A161" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="B161" s="2">
-        <v>888</v>
+      <c r="B161" s="2" t="s">
+        <v>322</v>
       </c>
       <c r="C161" s="2" t="s">
         <v>23</v>
@@ -4051,8 +4137,8 @@
       <c r="A162" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="B162" s="2">
-        <v>1</v>
+      <c r="B162" s="2" t="s">
+        <v>317</v>
       </c>
       <c r="C162" s="2" t="s">
         <v>130</v>
@@ -4062,8 +4148,8 @@
       <c r="A163" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="B163" s="2">
-        <v>2</v>
+      <c r="B163" s="2" t="s">
+        <v>318</v>
       </c>
       <c r="C163" s="2" t="s">
         <v>131</v>
@@ -4073,8 +4159,8 @@
       <c r="A164" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="B164" s="2">
-        <v>3</v>
+      <c r="B164" s="2" t="s">
+        <v>319</v>
       </c>
       <c r="C164" s="2" t="s">
         <v>132</v>
@@ -4084,8 +4170,8 @@
       <c r="A165" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="B165" s="2">
-        <v>4</v>
+      <c r="B165" s="2" t="s">
+        <v>320</v>
       </c>
       <c r="C165" s="2" t="s">
         <v>133</v>
@@ -4095,8 +4181,8 @@
       <c r="A166" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="B166" s="2">
-        <v>5</v>
+      <c r="B166" s="2" t="s">
+        <v>321</v>
       </c>
       <c r="C166" s="2" t="s">
         <v>134</v>
@@ -4106,8 +4192,8 @@
       <c r="A167" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="B167" s="2">
-        <v>6</v>
+      <c r="B167" s="2" t="s">
+        <v>326</v>
       </c>
       <c r="C167" s="2" t="s">
         <v>21</v>
@@ -4117,8 +4203,8 @@
       <c r="A168" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="B168" s="2">
-        <v>888</v>
+      <c r="B168" s="2" t="s">
+        <v>322</v>
       </c>
       <c r="C168" s="2" t="s">
         <v>23</v>
@@ -4128,8 +4214,8 @@
       <c r="A169" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="B169" s="2">
-        <v>999</v>
+      <c r="B169" s="2" t="s">
+        <v>325</v>
       </c>
       <c r="C169" s="2" t="s">
         <v>22</v>
@@ -4139,8 +4225,8 @@
       <c r="A170" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="B170" s="2">
-        <v>0</v>
+      <c r="B170" s="2" t="s">
+        <v>316</v>
       </c>
       <c r="C170" s="2" t="s">
         <v>136</v>
@@ -4150,8 +4236,8 @@
       <c r="A171" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="B171" s="2">
-        <v>1</v>
+      <c r="B171" s="2" t="s">
+        <v>317</v>
       </c>
       <c r="C171" s="2" t="s">
         <v>137</v>
@@ -4161,8 +4247,8 @@
       <c r="A172" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="B172" s="2">
-        <v>888</v>
+      <c r="B172" s="2" t="s">
+        <v>322</v>
       </c>
       <c r="C172" s="2" t="s">
         <v>23</v>
@@ -4172,8 +4258,8 @@
       <c r="A173" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="B173" s="2">
-        <v>1</v>
+      <c r="B173" s="2" t="s">
+        <v>317</v>
       </c>
       <c r="C173" s="2" t="s">
         <v>20</v>
@@ -4183,8 +4269,8 @@
       <c r="A174" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="B174" s="2">
-        <v>0</v>
+      <c r="B174" s="2" t="s">
+        <v>316</v>
       </c>
       <c r="C174" s="2" t="s">
         <v>19</v>
@@ -4194,8 +4280,8 @@
       <c r="A175" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="B175" s="2">
-        <v>2</v>
+      <c r="B175" s="2" t="s">
+        <v>318</v>
       </c>
       <c r="C175" s="2" t="s">
         <v>139</v>
@@ -4205,8 +4291,8 @@
       <c r="A176" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="B176" s="2">
-        <v>888</v>
+      <c r="B176" s="2" t="s">
+        <v>322</v>
       </c>
       <c r="C176" s="2" t="s">
         <v>23</v>
@@ -4216,8 +4302,8 @@
       <c r="A177" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="B177" s="2">
-        <v>1</v>
+      <c r="B177" s="2" t="s">
+        <v>317</v>
       </c>
       <c r="C177" s="2" t="s">
         <v>141</v>
@@ -4227,8 +4313,8 @@
       <c r="A178" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="B178" s="2">
-        <v>2</v>
+      <c r="B178" s="2" t="s">
+        <v>318</v>
       </c>
       <c r="C178" s="2" t="s">
         <v>142</v>
@@ -4238,8 +4324,8 @@
       <c r="A179" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="B179" s="2">
-        <v>3</v>
+      <c r="B179" s="2" t="s">
+        <v>319</v>
       </c>
       <c r="C179" s="2" t="s">
         <v>143</v>
@@ -4249,8 +4335,8 @@
       <c r="A180" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="B180" s="2">
-        <v>0</v>
+      <c r="B180" s="2" t="s">
+        <v>316</v>
       </c>
       <c r="C180" s="2" t="s">
         <v>16</v>
@@ -4260,8 +4346,8 @@
       <c r="A181" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="B181" s="2">
-        <v>888</v>
+      <c r="B181" s="2" t="s">
+        <v>322</v>
       </c>
       <c r="C181" s="2" t="s">
         <v>23</v>
@@ -4271,8 +4357,8 @@
       <c r="A182" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="B182" s="2">
-        <v>999</v>
+      <c r="B182" s="2" t="s">
+        <v>325</v>
       </c>
       <c r="C182" s="2" t="s">
         <v>22</v>
@@ -4282,8 +4368,8 @@
       <c r="A183" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="B183" s="2">
-        <v>0</v>
+      <c r="B183" s="2" t="s">
+        <v>316</v>
       </c>
       <c r="C183" s="2" t="s">
         <v>146</v>
@@ -4293,8 +4379,8 @@
       <c r="A184" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="B184" s="2">
-        <v>1</v>
+      <c r="B184" s="2" t="s">
+        <v>317</v>
       </c>
       <c r="C184" s="2" t="s">
         <v>147</v>
@@ -4304,8 +4390,8 @@
       <c r="A185" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="B185" s="2">
-        <v>2</v>
+      <c r="B185" s="2" t="s">
+        <v>318</v>
       </c>
       <c r="C185" s="2" t="s">
         <v>148</v>
@@ -4315,8 +4401,8 @@
       <c r="A186" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="B186" s="2">
-        <v>3</v>
+      <c r="B186" s="2" t="s">
+        <v>319</v>
       </c>
       <c r="C186" s="2" t="s">
         <v>149</v>
@@ -4326,8 +4412,8 @@
       <c r="A187" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="B187" s="2">
-        <v>4</v>
+      <c r="B187" s="2" t="s">
+        <v>320</v>
       </c>
       <c r="C187" s="2" t="s">
         <v>21</v>
@@ -4337,8 +4423,8 @@
       <c r="A188" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="B188" s="2">
-        <v>888</v>
+      <c r="B188" s="2" t="s">
+        <v>322</v>
       </c>
       <c r="C188" s="2" t="s">
         <v>23</v>
@@ -4348,8 +4434,8 @@
       <c r="A189" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="B189" s="2">
-        <v>1</v>
+      <c r="B189" s="2" t="s">
+        <v>317</v>
       </c>
       <c r="C189" s="2" t="s">
         <v>150</v>
@@ -4359,8 +4445,8 @@
       <c r="A190" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="B190" s="2">
-        <v>2</v>
+      <c r="B190" s="2" t="s">
+        <v>318</v>
       </c>
       <c r="C190" s="2" t="s">
         <v>151</v>
@@ -4370,8 +4456,8 @@
       <c r="A191" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="B191" s="2">
-        <v>3</v>
+      <c r="B191" s="2" t="s">
+        <v>319</v>
       </c>
       <c r="C191" s="2" t="s">
         <v>152</v>
@@ -4381,8 +4467,8 @@
       <c r="A192" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="B192" s="2">
-        <v>4</v>
+      <c r="B192" s="2" t="s">
+        <v>320</v>
       </c>
       <c r="C192" s="2" t="s">
         <v>153</v>
@@ -4392,8 +4478,8 @@
       <c r="A193" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="B193" s="2">
-        <v>5</v>
+      <c r="B193" s="2" t="s">
+        <v>321</v>
       </c>
       <c r="C193" s="2" t="s">
         <v>154</v>
@@ -4403,8 +4489,8 @@
       <c r="A194" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="B194" s="2">
-        <v>888</v>
+      <c r="B194" s="2" t="s">
+        <v>322</v>
       </c>
       <c r="C194" s="2" t="s">
         <v>23</v>
@@ -4414,8 +4500,8 @@
       <c r="A195" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="B195" s="2">
-        <v>999</v>
+      <c r="B195" s="2" t="s">
+        <v>325</v>
       </c>
       <c r="C195" s="2" t="s">
         <v>22</v>
@@ -4425,8 +4511,8 @@
       <c r="A196" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="B196" s="2">
-        <v>0</v>
+      <c r="B196" s="2" t="s">
+        <v>316</v>
       </c>
       <c r="C196" s="2" t="s">
         <v>146</v>
@@ -4436,8 +4522,8 @@
       <c r="A197" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="B197" s="2">
-        <v>1</v>
+      <c r="B197" s="2" t="s">
+        <v>317</v>
       </c>
       <c r="C197" s="2" t="s">
         <v>156</v>
@@ -4447,8 +4533,8 @@
       <c r="A198" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="B198" s="2">
-        <v>2</v>
+      <c r="B198" s="2" t="s">
+        <v>318</v>
       </c>
       <c r="C198" s="2" t="s">
         <v>157</v>
@@ -4458,8 +4544,8 @@
       <c r="A199" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="B199" s="2">
-        <v>888</v>
+      <c r="B199" s="2" t="s">
+        <v>322</v>
       </c>
       <c r="C199" s="2" t="s">
         <v>23</v>
@@ -4469,8 +4555,8 @@
       <c r="A200" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="B200" s="2">
-        <v>999</v>
+      <c r="B200" s="2" t="s">
+        <v>325</v>
       </c>
       <c r="C200" s="2" t="s">
         <v>22</v>
@@ -4480,8 +4566,8 @@
       <c r="A201" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="B201" s="2">
-        <v>1</v>
+      <c r="B201" s="2" t="s">
+        <v>317</v>
       </c>
       <c r="C201" s="2" t="s">
         <v>29</v>
@@ -4491,8 +4577,8 @@
       <c r="A202" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="B202" s="2">
-        <v>0</v>
+      <c r="B202" s="2" t="s">
+        <v>316</v>
       </c>
       <c r="C202" s="2" t="s">
         <v>30</v>
@@ -4502,8 +4588,8 @@
       <c r="A203" s="2" t="s">
         <v>161</v>
       </c>
-      <c r="B203" s="2">
-        <v>1</v>
+      <c r="B203" s="2" t="s">
+        <v>317</v>
       </c>
       <c r="C203" s="2" t="s">
         <v>29</v>
@@ -4513,8 +4599,8 @@
       <c r="A204" s="2" t="s">
         <v>161</v>
       </c>
-      <c r="B204" s="2">
-        <v>0</v>
+      <c r="B204" s="2" t="s">
+        <v>316</v>
       </c>
       <c r="C204" s="2" t="s">
         <v>30</v>
@@ -4524,8 +4610,8 @@
       <c r="A205" s="2" t="s">
         <v>161</v>
       </c>
-      <c r="B205" s="2">
-        <v>2</v>
+      <c r="B205" s="2" t="s">
+        <v>318</v>
       </c>
       <c r="C205" s="2" t="s">
         <v>160</v>
@@ -4535,8 +4621,8 @@
       <c r="A206" s="2" t="s">
         <v>162</v>
       </c>
-      <c r="B206" s="2">
-        <v>1</v>
+      <c r="B206" s="2" t="s">
+        <v>317</v>
       </c>
       <c r="C206" s="2" t="s">
         <v>15</v>
@@ -4546,8 +4632,8 @@
       <c r="A207" s="2" t="s">
         <v>162</v>
       </c>
-      <c r="B207" s="2">
-        <v>0</v>
+      <c r="B207" s="2" t="s">
+        <v>316</v>
       </c>
       <c r="C207" s="2" t="s">
         <v>16</v>
@@ -4557,8 +4643,8 @@
       <c r="A208" s="2" t="s">
         <v>162</v>
       </c>
-      <c r="B208" s="2">
-        <v>3</v>
+      <c r="B208" s="2" t="s">
+        <v>319</v>
       </c>
       <c r="C208" s="2" t="s">
         <v>163</v>
@@ -4568,8 +4654,8 @@
       <c r="A209" s="2" t="s">
         <v>162</v>
       </c>
-      <c r="B209" s="2">
-        <v>4</v>
+      <c r="B209" s="2" t="s">
+        <v>320</v>
       </c>
       <c r="C209" s="2" t="s">
         <v>175</v>
@@ -4579,8 +4665,8 @@
       <c r="A210" s="2" t="s">
         <v>173</v>
       </c>
-      <c r="B210" s="2">
-        <v>1</v>
+      <c r="B210" s="2" t="s">
+        <v>317</v>
       </c>
       <c r="C210" s="2" t="s">
         <v>174</v>
@@ -4590,8 +4676,8 @@
       <c r="A211" s="2" t="s">
         <v>193</v>
       </c>
-      <c r="B211" s="2">
-        <v>1</v>
+      <c r="B211" s="2" t="s">
+        <v>317</v>
       </c>
       <c r="C211" s="2" t="s">
         <v>194</v>
@@ -4601,8 +4687,8 @@
       <c r="A212" s="2" t="s">
         <v>193</v>
       </c>
-      <c r="B212" s="2">
-        <v>888</v>
+      <c r="B212" s="2" t="s">
+        <v>322</v>
       </c>
       <c r="C212" s="2" t="s">
         <v>23</v>
@@ -4612,8 +4698,8 @@
       <c r="A213" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B213" s="2">
-        <v>0</v>
+      <c r="B213" s="2" t="s">
+        <v>316</v>
       </c>
       <c r="C213" s="2" t="s">
         <v>19</v>
@@ -4623,8 +4709,8 @@
       <c r="A214" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B214" s="2">
-        <v>1</v>
+      <c r="B214" s="2" t="s">
+        <v>317</v>
       </c>
       <c r="C214" s="2" t="s">
         <v>20</v>
@@ -4634,8 +4720,8 @@
       <c r="A215" s="1" t="s">
         <v>288</v>
       </c>
-      <c r="B215" s="1">
-        <v>1</v>
+      <c r="B215" s="2" t="s">
+        <v>317</v>
       </c>
       <c r="C215" s="1" t="s">
         <v>304</v>
@@ -4645,8 +4731,8 @@
       <c r="A216" s="1" t="s">
         <v>288</v>
       </c>
-      <c r="B216" s="1">
-        <v>2</v>
+      <c r="B216" s="2" t="s">
+        <v>318</v>
       </c>
       <c r="C216" s="1" t="s">
         <v>305</v>
@@ -4656,8 +4742,8 @@
       <c r="A217" s="1" t="s">
         <v>288</v>
       </c>
-      <c r="B217" s="1">
-        <v>3</v>
+      <c r="B217" s="2" t="s">
+        <v>319</v>
       </c>
       <c r="C217" s="1" t="s">
         <v>306</v>
@@ -4667,8 +4753,8 @@
       <c r="A218" s="1" t="s">
         <v>288</v>
       </c>
-      <c r="B218" s="1">
-        <v>4</v>
+      <c r="B218" s="2" t="s">
+        <v>320</v>
       </c>
       <c r="C218" s="1" t="s">
         <v>307</v>
@@ -4678,8 +4764,8 @@
       <c r="A219" s="1" t="s">
         <v>288</v>
       </c>
-      <c r="B219" s="1">
-        <v>5</v>
+      <c r="B219" s="2" t="s">
+        <v>321</v>
       </c>
       <c r="C219" s="1" t="s">
         <v>308</v>
@@ -4689,8 +4775,8 @@
       <c r="A220" s="1" t="s">
         <v>288</v>
       </c>
-      <c r="B220" s="1">
-        <v>6</v>
+      <c r="B220" s="2" t="s">
+        <v>326</v>
       </c>
       <c r="C220" s="1" t="s">
         <v>309</v>
@@ -4700,8 +4786,8 @@
       <c r="A221" s="1" t="s">
         <v>288</v>
       </c>
-      <c r="B221" s="1">
-        <v>7</v>
+      <c r="B221" s="2" t="s">
+        <v>327</v>
       </c>
       <c r="C221" s="1" t="s">
         <v>310</v>
@@ -4711,8 +4797,8 @@
       <c r="A222" s="1" t="s">
         <v>288</v>
       </c>
-      <c r="B222" s="1">
-        <v>8</v>
+      <c r="B222" s="2" t="s">
+        <v>328</v>
       </c>
       <c r="C222" s="1" t="s">
         <v>21</v>
@@ -4722,8 +4808,8 @@
       <c r="A223" s="1" t="s">
         <v>288</v>
       </c>
-      <c r="B223" s="1">
-        <v>9</v>
+      <c r="B223" s="2" t="s">
+        <v>329</v>
       </c>
       <c r="C223" s="1" t="s">
         <v>311</v>
@@ -4733,8 +4819,8 @@
       <c r="A224" s="1" t="s">
         <v>288</v>
       </c>
-      <c r="B224" s="1">
-        <v>888</v>
+      <c r="B224" s="2" t="s">
+        <v>322</v>
       </c>
       <c r="C224" s="1" t="s">
         <v>23</v>
@@ -4744,8 +4830,8 @@
       <c r="A225" s="1" t="s">
         <v>289</v>
       </c>
-      <c r="B225" s="1">
-        <v>0</v>
+      <c r="B225" s="2" t="s">
+        <v>316</v>
       </c>
       <c r="C225" s="1" t="s">
         <v>122</v>
@@ -4755,8 +4841,8 @@
       <c r="A226" s="1" t="s">
         <v>289</v>
       </c>
-      <c r="B226" s="1">
-        <v>1</v>
+      <c r="B226" s="2" t="s">
+        <v>317</v>
       </c>
       <c r="C226" s="1" t="s">
         <v>312</v>
@@ -4766,8 +4852,8 @@
       <c r="A227" s="1" t="s">
         <v>289</v>
       </c>
-      <c r="B227" s="1">
-        <v>2</v>
+      <c r="B227" s="2" t="s">
+        <v>318</v>
       </c>
       <c r="C227" s="1" t="s">
         <v>313</v>
@@ -4777,8 +4863,8 @@
       <c r="A228" s="1" t="s">
         <v>289</v>
       </c>
-      <c r="B228" s="1">
-        <v>3</v>
+      <c r="B228" s="2" t="s">
+        <v>319</v>
       </c>
       <c r="C228" s="1" t="s">
         <v>314</v>
@@ -4788,8 +4874,8 @@
       <c r="A229" s="1" t="s">
         <v>289</v>
       </c>
-      <c r="B229" s="1">
-        <v>4</v>
+      <c r="B229" s="2" t="s">
+        <v>320</v>
       </c>
       <c r="C229" s="1" t="s">
         <v>315</v>
@@ -4799,8 +4885,8 @@
       <c r="A230" s="1" t="s">
         <v>289</v>
       </c>
-      <c r="B230" s="1">
-        <v>5</v>
+      <c r="B230" s="2" t="s">
+        <v>321</v>
       </c>
       <c r="C230" s="1" t="s">
         <v>21</v>
@@ -4810,8 +4896,8 @@
       <c r="A231" s="1" t="s">
         <v>289</v>
       </c>
-      <c r="B231" s="1">
-        <v>888</v>
+      <c r="B231" s="2" t="s">
+        <v>322</v>
       </c>
       <c r="C231" s="1" t="s">
         <v>23</v>

--- a/app/tables/femaleClients/forms/client6Month/client6Month.xlsx
+++ b/app/tables/femaleClients/forms/client6Month/client6Month.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="22202"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="31780" yWindow="1840" windowWidth="25600" windowHeight="16020" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="720" yWindow="720" windowWidth="24880" windowHeight="15340" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
     <sheet name="choices" sheetId="2" r:id="rId2"/>
     <sheet name="settings" sheetId="3" r:id="rId3"/>
+    <sheet name="model" sheetId="4" r:id="rId4"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">survey!$B$1:$M$56</definedName>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="906" uniqueCount="337">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1036" uniqueCount="360">
   <si>
     <t>type</t>
   </si>
@@ -743,9 +744,6 @@
     <t>display.hint</t>
   </si>
   <si>
-    <t>interviewerw_init</t>
-  </si>
-  <si>
     <t>interviewer_id</t>
   </si>
   <si>
@@ -1038,6 +1036,78 @@
   </si>
   <si>
     <t>a16</t>
+  </si>
+  <si>
+    <t>age</t>
+  </si>
+  <si>
+    <t>randomization</t>
+  </si>
+  <si>
+    <t>delivery_location</t>
+  </si>
+  <si>
+    <t>infant_test</t>
+  </si>
+  <si>
+    <t>agree_screening</t>
+  </si>
+  <si>
+    <t>pregnant</t>
+  </si>
+  <si>
+    <t>gestational_age</t>
+  </si>
+  <si>
+    <t>ethnic_group</t>
+  </si>
+  <si>
+    <t>ethnic_group_other</t>
+  </si>
+  <si>
+    <t>education_level</t>
+  </si>
+  <si>
+    <t>religion</t>
+  </si>
+  <si>
+    <t>religion_other</t>
+  </si>
+  <si>
+    <t>employment</t>
+  </si>
+  <si>
+    <t>employment_other</t>
+  </si>
+  <si>
+    <t>curr_relationship</t>
+  </si>
+  <si>
+    <t>partner_age</t>
+  </si>
+  <si>
+    <t>times_pregnant</t>
+  </si>
+  <si>
+    <t>living_children</t>
+  </si>
+  <si>
+    <t>clinic_proximity</t>
+  </si>
+  <si>
+    <t>client_consent</t>
+  </si>
+  <si>
+    <t xml:space="preserve">select_multiple </t>
+  </si>
+  <si>
+    <t>refusal_reasons</t>
+  </si>
+  <si>
+    <t>refusal_reasons_other</t>
+  </si>
+  <si>
+    <t>interviewer_init</t>
   </si>
 </sst>
 </file>
@@ -1083,7 +1153,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1100,6 +1170,30 @@
       <patternFill patternType="solid">
         <fgColor theme="3" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFDAEEF3"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFDA9694"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC4D79B"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFD9D9D9"/>
+        <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
   </fills>
@@ -1129,7 +1223,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1168,6 +1262,22 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1576,11 +1686,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R55"/>
   <sheetViews>
-    <sheetView zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A15" sqref="A15:XFD15"/>
+      <selection pane="bottomRight" activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1660,7 +1770,7 @@
       </c>
       <c r="C2" s="1"/>
       <c r="D2" s="8" t="s">
-        <v>238</v>
+        <v>359</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>233</v>
@@ -1682,7 +1792,7 @@
         <v>10</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="E3" s="3" t="s">
         <v>18</v>
@@ -1706,7 +1816,7 @@
         <v>10</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="E5" s="3" t="s">
         <v>197</v>
@@ -1715,7 +1825,7 @@
         <v>198</v>
       </c>
       <c r="I5" s="12" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="6" spans="1:18" ht="60">
@@ -1723,7 +1833,7 @@
         <v>13</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>199</v>
@@ -1734,7 +1844,7 @@
         <v>11</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>200</v>
@@ -1742,13 +1852,13 @@
     </row>
     <row r="8" spans="1:18">
       <c r="B8" s="7" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>39</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>201</v>
@@ -1756,7 +1866,7 @@
     </row>
     <row r="9" spans="1:18">
       <c r="A9" s="2" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="10" spans="1:18">
@@ -1764,7 +1874,7 @@
         <v>202</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>203</v>
@@ -1772,13 +1882,13 @@
     </row>
     <row r="11" spans="1:18">
       <c r="B11" s="7" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>39</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>204</v>
@@ -1789,7 +1899,7 @@
         <v>202</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>205</v>
@@ -1797,7 +1907,7 @@
     </row>
     <row r="13" spans="1:18">
       <c r="A13" s="2" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="14" spans="1:18" ht="30">
@@ -1805,7 +1915,7 @@
         <v>13</v>
       </c>
       <c r="D14" s="8" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>206</v>
@@ -1816,7 +1926,7 @@
         <v>9</v>
       </c>
       <c r="D15" s="8" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>207</v>
@@ -1824,13 +1934,13 @@
     </row>
     <row r="16" spans="1:18">
       <c r="B16" s="7" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="D16" s="8" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>208</v>
@@ -1841,7 +1951,7 @@
         <v>9</v>
       </c>
       <c r="D17" s="8" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="E17" s="2" t="s">
         <v>209</v>
@@ -1849,13 +1959,13 @@
     </row>
     <row r="18" spans="1:9">
       <c r="B18" s="7" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>46</v>
       </c>
       <c r="D18" s="8" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="E18" s="2" t="s">
         <v>210</v>
@@ -1863,13 +1973,13 @@
     </row>
     <row r="19" spans="1:9">
       <c r="B19" s="7" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>39</v>
       </c>
       <c r="D19" s="8" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="E19" s="2" t="s">
         <v>211</v>
@@ -1877,13 +1987,13 @@
     </row>
     <row r="20" spans="1:9" ht="30">
       <c r="B20" s="7" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="D20" s="8" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E20" s="2" t="s">
         <v>212</v>
@@ -1897,7 +2007,7 @@
         <v>9</v>
       </c>
       <c r="D21" s="8" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="E21" s="2" t="s">
         <v>214</v>
@@ -1905,7 +2015,7 @@
     </row>
     <row r="22" spans="1:9">
       <c r="A22" s="2" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="23" spans="1:9">
@@ -1913,7 +2023,7 @@
         <v>13</v>
       </c>
       <c r="D23" s="8" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="E23" s="2" t="s">
         <v>215</v>
@@ -1922,13 +2032,13 @@
     </row>
     <row r="24" spans="1:9">
       <c r="B24" s="7" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>39</v>
       </c>
       <c r="D24" s="8" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="E24" s="2" t="s">
         <v>188</v>
@@ -1936,13 +2046,13 @@
     </row>
     <row r="25" spans="1:9">
       <c r="B25" s="7" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C25" s="2" t="s">
         <v>39</v>
       </c>
       <c r="D25" s="8" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="E25" s="2" t="s">
         <v>189</v>
@@ -1953,7 +2063,7 @@
         <v>10</v>
       </c>
       <c r="D26" s="8" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="E26" s="2" t="s">
         <v>190</v>
@@ -1967,7 +2077,7 @@
         <v>13</v>
       </c>
       <c r="D27" s="8" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="E27" s="2" t="s">
         <v>217</v>
@@ -1976,13 +2086,13 @@
     </row>
     <row r="28" spans="1:9" ht="45">
       <c r="B28" s="7" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C28" s="2" t="s">
         <v>39</v>
       </c>
       <c r="D28" s="8" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="E28" s="2" t="s">
         <v>218</v>
@@ -1993,13 +2103,13 @@
     </row>
     <row r="29" spans="1:9">
       <c r="B29" s="7" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C29" s="2" t="s">
         <v>38</v>
       </c>
       <c r="D29" s="8" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="E29" s="2" t="s">
         <v>180</v>
@@ -2010,7 +2120,7 @@
         <v>9</v>
       </c>
       <c r="D30" s="8" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="E30" s="2" t="s">
         <v>220</v>
@@ -2018,13 +2128,13 @@
     </row>
     <row r="31" spans="1:9">
       <c r="B31" s="7" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C31" s="2" t="s">
         <v>45</v>
       </c>
       <c r="D31" s="8" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="E31" s="2" t="s">
         <v>221</v>
@@ -2032,18 +2142,18 @@
     </row>
     <row r="32" spans="1:9">
       <c r="A32" s="2" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="33" spans="1:9" ht="30">
       <c r="B33" s="7" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C33" s="2" t="s">
         <v>46</v>
       </c>
       <c r="D33" s="8" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="E33" s="2" t="s">
         <v>181</v>
@@ -2051,13 +2161,13 @@
     </row>
     <row r="34" spans="1:9">
       <c r="B34" s="7" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C34" s="2" t="s">
         <v>41</v>
       </c>
       <c r="D34" s="8" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="E34" s="2" t="s">
         <v>40</v>
@@ -2068,7 +2178,7 @@
         <v>10</v>
       </c>
       <c r="D35" s="8" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="E35" s="2" t="s">
         <v>182</v>
@@ -2079,13 +2189,13 @@
     </row>
     <row r="36" spans="1:9" ht="30">
       <c r="B36" s="7" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C36" s="2" t="s">
         <v>46</v>
       </c>
       <c r="D36" s="8" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="E36" s="2" t="s">
         <v>183</v>
@@ -2093,18 +2203,18 @@
     </row>
     <row r="37" spans="1:9">
       <c r="A37" s="2" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="38" spans="1:9">
       <c r="B38" s="7" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C38" s="2" t="s">
         <v>46</v>
       </c>
       <c r="D38" s="8" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="E38" s="2" t="s">
         <v>184</v>
@@ -2112,13 +2222,13 @@
     </row>
     <row r="39" spans="1:9">
       <c r="B39" s="7" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C39" s="2" t="s">
         <v>46</v>
       </c>
       <c r="D39" s="8" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="E39" s="2" t="s">
         <v>223</v>
@@ -2126,13 +2236,13 @@
     </row>
     <row r="40" spans="1:9">
       <c r="B40" s="7" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C40" s="2" t="s">
         <v>49</v>
       </c>
       <c r="D40" s="8" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="E40" s="2" t="s">
         <v>224</v>
@@ -2140,13 +2250,13 @@
     </row>
     <row r="41" spans="1:9">
       <c r="B41" s="7" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C41" s="2" t="s">
         <v>46</v>
       </c>
       <c r="D41" s="8" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="E41" s="2" t="s">
         <v>225</v>
@@ -2154,13 +2264,13 @@
     </row>
     <row r="42" spans="1:9" ht="30">
       <c r="B42" s="7" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C42" s="2" t="s">
         <v>46</v>
       </c>
       <c r="D42" s="8" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="E42" s="2" t="s">
         <v>226</v>
@@ -2171,13 +2281,13 @@
     </row>
     <row r="43" spans="1:9" ht="30">
       <c r="B43" s="7" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C43" s="2" t="s">
         <v>46</v>
       </c>
       <c r="D43" s="8" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="E43" s="2" t="s">
         <v>228</v>
@@ -2185,13 +2295,13 @@
     </row>
     <row r="44" spans="1:9" ht="30">
       <c r="B44" s="7" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C44" s="2" t="s">
         <v>46</v>
       </c>
       <c r="D44" s="8" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="E44" s="2" t="s">
         <v>185</v>
@@ -2199,13 +2309,13 @@
     </row>
     <row r="45" spans="1:9">
       <c r="B45" s="7" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C45" s="2" t="s">
         <v>46</v>
       </c>
       <c r="D45" s="8" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="E45" s="2" t="s">
         <v>186</v>
@@ -2213,13 +2323,13 @@
     </row>
     <row r="46" spans="1:9" ht="30">
       <c r="B46" s="7" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C46" s="2" t="s">
         <v>57</v>
       </c>
       <c r="D46" s="8" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E46" s="2" t="s">
         <v>187</v>
@@ -2227,7 +2337,7 @@
     </row>
     <row r="47" spans="1:9">
       <c r="A47" s="2" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="48" spans="1:9">
@@ -2235,7 +2345,7 @@
         <v>13</v>
       </c>
       <c r="D48" s="8" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E48" s="2" t="s">
         <v>231</v>
@@ -2244,13 +2354,13 @@
     </row>
     <row r="49" spans="2:6" ht="45">
       <c r="B49" s="7" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C49" s="2" t="s">
         <v>145</v>
       </c>
       <c r="D49" s="8" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="E49" s="2" t="s">
         <v>230</v>
@@ -2264,7 +2374,7 @@
         <v>9</v>
       </c>
       <c r="D50" s="8" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="E50" s="2" t="s">
         <v>191</v>
@@ -2272,13 +2382,13 @@
     </row>
     <row r="51" spans="2:6" ht="30">
       <c r="B51" s="7" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C51" s="2" t="s">
         <v>46</v>
       </c>
       <c r="D51" s="8" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="E51" s="2" t="s">
         <v>171</v>
@@ -2286,13 +2396,13 @@
     </row>
     <row r="52" spans="2:6" ht="30">
       <c r="B52" s="7" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C52" s="2" t="s">
         <v>155</v>
       </c>
       <c r="D52" s="8" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="E52" s="2" t="s">
         <v>172</v>
@@ -2306,7 +2416,7 @@
         <v>9</v>
       </c>
       <c r="D53" s="8" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="E53" s="2" t="s">
         <v>179</v>
@@ -2317,7 +2427,7 @@
         <v>13</v>
       </c>
       <c r="D54" s="8" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="E54" s="2" t="s">
         <v>232</v>
@@ -2328,7 +2438,7 @@
         <v>9</v>
       </c>
       <c r="D55" s="8" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="E55" s="2" t="s">
         <v>229</v>
@@ -2350,7 +2460,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D231"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
@@ -2364,10 +2474,10 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>236</v>
@@ -2378,7 +2488,7 @@
         <v>26</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>19</v>
@@ -2389,7 +2499,7 @@
         <v>26</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>20</v>
@@ -2400,7 +2510,7 @@
         <v>26</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>27</v>
@@ -2411,7 +2521,7 @@
         <v>26</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>28</v>
@@ -2422,7 +2532,7 @@
         <v>31</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>29</v>
@@ -2433,7 +2543,7 @@
         <v>31</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>30</v>
@@ -2444,7 +2554,7 @@
         <v>38</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>32</v>
@@ -2455,7 +2565,7 @@
         <v>38</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>33</v>
@@ -2466,7 +2576,7 @@
         <v>38</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>34</v>
@@ -2477,7 +2587,7 @@
         <v>38</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>35</v>
@@ -2488,7 +2598,7 @@
         <v>38</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>37</v>
@@ -2499,7 +2609,7 @@
         <v>38</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>36</v>
@@ -2510,7 +2620,7 @@
         <v>39</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>15</v>
@@ -2521,7 +2631,7 @@
         <v>39</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>16</v>
@@ -2532,7 +2642,7 @@
         <v>39</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>36</v>
@@ -2543,7 +2653,7 @@
         <v>41</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>15</v>
@@ -2554,7 +2664,7 @@
         <v>41</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>42</v>
@@ -2565,7 +2675,7 @@
         <v>41</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>43</v>
@@ -2576,7 +2686,7 @@
         <v>41</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>23</v>
@@ -2587,7 +2697,7 @@
         <v>41</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>22</v>
@@ -2598,7 +2708,7 @@
         <v>45</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>19</v>
@@ -2609,7 +2719,7 @@
         <v>45</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>20</v>
@@ -2620,7 +2730,7 @@
         <v>45</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>44</v>
@@ -2631,7 +2741,7 @@
         <v>45</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C25" s="2" t="s">
         <v>23</v>
@@ -2642,7 +2752,7 @@
         <v>45</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>22</v>
@@ -2653,7 +2763,7 @@
         <v>46</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="C27" s="2" t="s">
         <v>15</v>
@@ -2664,7 +2774,7 @@
         <v>46</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C28" s="2" t="s">
         <v>16</v>
@@ -2675,7 +2785,7 @@
         <v>46</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C29" s="1" t="s">
         <v>36</v>
@@ -2686,7 +2796,7 @@
         <v>46</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="C30" s="1" t="s">
         <v>22</v>
@@ -2697,7 +2807,7 @@
         <v>14</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="C31" s="2" t="s">
         <v>15</v>
@@ -2708,7 +2818,7 @@
         <v>14</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C32" s="2" t="s">
         <v>16</v>
@@ -2719,7 +2829,7 @@
         <v>49</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="C33" s="2" t="s">
         <v>47</v>
@@ -2730,7 +2840,7 @@
         <v>49</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="C34" s="2" t="s">
         <v>48</v>
@@ -2741,7 +2851,7 @@
         <v>49</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C35" s="1" t="s">
         <v>36</v>
@@ -2752,7 +2862,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="C36" s="1" t="s">
         <v>22</v>
@@ -2763,7 +2873,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="C37" s="2" t="s">
         <v>176</v>
@@ -2774,7 +2884,7 @@
         <v>50</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C38" s="2" t="s">
         <v>51</v>
@@ -2785,7 +2895,7 @@
         <v>50</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="C39" s="2" t="s">
         <v>52</v>
@@ -2796,7 +2906,7 @@
         <v>50</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C40" s="1" t="s">
         <v>36</v>
@@ -2807,7 +2917,7 @@
         <v>50</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="C41" s="1" t="s">
         <v>22</v>
@@ -2818,7 +2928,7 @@
         <v>53</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="C42" s="1" t="s">
         <v>54</v>
@@ -2829,7 +2939,7 @@
         <v>53</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="C43" s="1" t="s">
         <v>55</v>
@@ -2840,7 +2950,7 @@
         <v>53</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="C44" s="1" t="s">
         <v>56</v>
@@ -2851,7 +2961,7 @@
         <v>53</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C45" s="1" t="s">
         <v>21</v>
@@ -2862,7 +2972,7 @@
         <v>53</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C46" s="1" t="s">
         <v>36</v>
@@ -2873,7 +2983,7 @@
         <v>53</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="C47" s="1" t="s">
         <v>22</v>
@@ -2884,7 +2994,7 @@
         <v>57</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="C48" s="2" t="s">
         <v>177</v>
@@ -2895,7 +3005,7 @@
         <v>57</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C49" s="2" t="s">
         <v>58</v>
@@ -2906,7 +3016,7 @@
         <v>57</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="C50" s="2" t="s">
         <v>178</v>
@@ -2917,7 +3027,7 @@
         <v>57</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C51" s="1" t="s">
         <v>36</v>
@@ -2928,7 +3038,7 @@
         <v>57</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="C52" s="1" t="s">
         <v>22</v>
@@ -2939,7 +3049,7 @@
         <v>59</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="C53" s="2" t="s">
         <v>60</v>
@@ -2950,7 +3060,7 @@
         <v>59</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="C54" s="2" t="s">
         <v>61</v>
@@ -2961,7 +3071,7 @@
         <v>59</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="C55" s="2" t="s">
         <v>62</v>
@@ -2972,7 +3082,7 @@
         <v>59</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C56" s="2" t="s">
         <v>63</v>
@@ -2983,7 +3093,7 @@
         <v>59</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C57" s="2" t="s">
         <v>64</v>
@@ -2994,7 +3104,7 @@
         <v>59</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C58" s="2" t="s">
         <v>65</v>
@@ -3005,7 +3115,7 @@
         <v>59</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="C59" s="2" t="s">
         <v>37</v>
@@ -3016,7 +3126,7 @@
         <v>59</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C60" s="2" t="s">
         <v>66</v>
@@ -3027,7 +3137,7 @@
         <v>67</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="C61" s="2" t="s">
         <v>60</v>
@@ -3038,7 +3148,7 @@
         <v>67</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="C62" s="2" t="s">
         <v>61</v>
@@ -3049,7 +3159,7 @@
         <v>67</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="C63" s="2" t="s">
         <v>62</v>
@@ -3060,7 +3170,7 @@
         <v>67</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C64" s="2" t="s">
         <v>63</v>
@@ -3071,7 +3181,7 @@
         <v>67</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C65" s="2" t="s">
         <v>64</v>
@@ -3082,7 +3192,7 @@
         <v>67</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C66" s="2" t="s">
         <v>65</v>
@@ -3093,7 +3203,7 @@
         <v>67</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="C67" s="2" t="s">
         <v>37</v>
@@ -3104,7 +3214,7 @@
         <v>67</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="C68" s="2" t="s">
         <v>68</v>
@@ -3115,7 +3225,7 @@
         <v>67</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C69" s="2" t="s">
         <v>66</v>
@@ -3126,7 +3236,7 @@
         <v>69</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="C70" s="2" t="s">
         <v>15</v>
@@ -3137,7 +3247,7 @@
         <v>69</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C71" s="2" t="s">
         <v>16</v>
@@ -3148,7 +3258,7 @@
         <v>69</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="C72" s="2" t="s">
         <v>70</v>
@@ -3159,7 +3269,7 @@
         <v>69</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C73" s="1" t="s">
         <v>36</v>
@@ -3170,7 +3280,7 @@
         <v>69</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="C74" s="1" t="s">
         <v>22</v>
@@ -3214,7 +3324,7 @@
         <v>71</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C78" s="1" t="s">
         <v>36</v>
@@ -3225,7 +3335,7 @@
         <v>71</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="C79" s="1" t="s">
         <v>22</v>
@@ -3236,7 +3346,7 @@
         <v>73</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="C80" s="2" t="s">
         <v>74</v>
@@ -3247,7 +3357,7 @@
         <v>73</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="C81" s="2" t="s">
         <v>75</v>
@@ -3258,7 +3368,7 @@
         <v>73</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="C82" s="1" t="s">
         <v>76</v>
@@ -3269,7 +3379,7 @@
         <v>73</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C83" s="1" t="s">
         <v>23</v>
@@ -3280,7 +3390,7 @@
         <v>73</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="C84" s="1" t="s">
         <v>22</v>
@@ -3291,7 +3401,7 @@
         <v>77</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="C85" s="1" t="s">
         <v>78</v>
@@ -3302,7 +3412,7 @@
         <v>77</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="C86" s="1" t="s">
         <v>79</v>
@@ -3313,7 +3423,7 @@
         <v>77</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="C87" s="1" t="s">
         <v>80</v>
@@ -3324,7 +3434,7 @@
         <v>77</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C88" s="1" t="s">
         <v>81</v>
@@ -3335,7 +3445,7 @@
         <v>77</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C89" s="1" t="s">
         <v>82</v>
@@ -3346,7 +3456,7 @@
         <v>77</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C90" s="1" t="s">
         <v>21</v>
@@ -3357,7 +3467,7 @@
         <v>77</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C91" s="1" t="s">
         <v>23</v>
@@ -3368,7 +3478,7 @@
         <v>98</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="C92" s="1" t="s">
         <v>83</v>
@@ -3379,7 +3489,7 @@
         <v>98</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="C93" s="1" t="s">
         <v>84</v>
@@ -3390,7 +3500,7 @@
         <v>98</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="C94" s="1" t="s">
         <v>85</v>
@@ -3401,7 +3511,7 @@
         <v>98</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C95" s="1" t="s">
         <v>86</v>
@@ -3412,7 +3522,7 @@
         <v>98</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C96" s="1" t="s">
         <v>87</v>
@@ -3423,7 +3533,7 @@
         <v>98</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C97" s="1" t="s">
         <v>88</v>
@@ -3434,7 +3544,7 @@
         <v>98</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="C98" s="1" t="s">
         <v>89</v>
@@ -3445,7 +3555,7 @@
         <v>98</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="C99" s="1" t="s">
         <v>90</v>
@@ -3456,7 +3566,7 @@
         <v>98</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="C100" s="1" t="s">
         <v>91</v>
@@ -3467,7 +3577,7 @@
         <v>98</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="C101" s="1" t="s">
         <v>92</v>
@@ -3478,7 +3588,7 @@
         <v>98</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="C102" s="1" t="s">
         <v>93</v>
@@ -3489,7 +3599,7 @@
         <v>98</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="C103" s="1" t="s">
         <v>94</v>
@@ -3500,7 +3610,7 @@
         <v>98</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="C104" s="1" t="s">
         <v>95</v>
@@ -3511,7 +3621,7 @@
         <v>98</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="C105" s="1" t="s">
         <v>96</v>
@@ -3522,7 +3632,7 @@
         <v>98</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="C106" s="1" t="s">
         <v>21</v>
@@ -3533,7 +3643,7 @@
         <v>98</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="C107" s="1" t="s">
         <v>97</v>
@@ -3544,7 +3654,7 @@
         <v>98</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C108" s="1" t="s">
         <v>23</v>
@@ -3555,7 +3665,7 @@
         <v>113</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="C109" s="1" t="s">
         <v>99</v>
@@ -3566,7 +3676,7 @@
         <v>113</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="C110" s="1" t="s">
         <v>100</v>
@@ -3577,7 +3687,7 @@
         <v>113</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="C111" s="1" t="s">
         <v>101</v>
@@ -3588,7 +3698,7 @@
         <v>113</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C112" s="1" t="s">
         <v>102</v>
@@ -3599,7 +3709,7 @@
         <v>113</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C113" s="1" t="s">
         <v>103</v>
@@ -3610,7 +3720,7 @@
         <v>113</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C114" s="1" t="s">
         <v>104</v>
@@ -3621,7 +3731,7 @@
         <v>113</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="C115" s="1" t="s">
         <v>105</v>
@@ -3632,7 +3742,7 @@
         <v>113</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="C116" s="1" t="s">
         <v>106</v>
@@ -3643,7 +3753,7 @@
         <v>113</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="C117" s="1" t="s">
         <v>107</v>
@@ -3654,7 +3764,7 @@
         <v>113</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="C118" s="1" t="s">
         <v>108</v>
@@ -3665,7 +3775,7 @@
         <v>113</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="C119" s="1" t="s">
         <v>109</v>
@@ -3676,7 +3786,7 @@
         <v>113</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="C120" s="1" t="s">
         <v>110</v>
@@ -3687,7 +3797,7 @@
         <v>113</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="C121" s="1" t="s">
         <v>111</v>
@@ -3698,7 +3808,7 @@
         <v>113</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="C122" s="1" t="s">
         <v>112</v>
@@ -3709,7 +3819,7 @@
         <v>113</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="C123" s="1" t="s">
         <v>21</v>
@@ -3720,7 +3830,7 @@
         <v>113</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C124" s="1" t="s">
         <v>23</v>
@@ -3731,7 +3841,7 @@
         <v>114</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="C125" s="1" t="s">
         <v>78</v>
@@ -3742,7 +3852,7 @@
         <v>114</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="C126" s="1" t="s">
         <v>79</v>
@@ -3753,7 +3863,7 @@
         <v>114</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="C127" s="1" t="s">
         <v>80</v>
@@ -3764,7 +3874,7 @@
         <v>114</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C128" s="1" t="s">
         <v>81</v>
@@ -3775,7 +3885,7 @@
         <v>114</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C129" s="1" t="s">
         <v>82</v>
@@ -3786,7 +3896,7 @@
         <v>114</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C130" s="1" t="s">
         <v>21</v>
@@ -3797,7 +3907,7 @@
         <v>114</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C131" s="1" t="s">
         <v>23</v>
@@ -3808,7 +3918,7 @@
         <v>117</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="C132" s="1" t="s">
         <v>115</v>
@@ -3819,7 +3929,7 @@
         <v>117</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C133" s="1" t="s">
         <v>116</v>
@@ -3830,7 +3940,7 @@
         <v>117</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C134" s="1" t="s">
         <v>23</v>
@@ -3841,7 +3951,7 @@
         <v>117</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="C135" s="1" t="s">
         <v>22</v>
@@ -3852,7 +3962,7 @@
         <v>121</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C136" s="1" t="s">
         <v>118</v>
@@ -3863,7 +3973,7 @@
         <v>121</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="C137" s="1" t="s">
         <v>119</v>
@@ -3874,7 +3984,7 @@
         <v>121</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="C138" s="1" t="s">
         <v>120</v>
@@ -3885,7 +3995,7 @@
         <v>121</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C139" s="2" t="s">
         <v>23</v>
@@ -3896,7 +4006,7 @@
         <v>123</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C140" s="2" t="s">
         <v>122</v>
@@ -3907,7 +4017,7 @@
         <v>123</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="C141" s="2" t="s">
         <v>83</v>
@@ -3918,7 +4028,7 @@
         <v>123</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="C142" s="2" t="s">
         <v>84</v>
@@ -3929,7 +4039,7 @@
         <v>123</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="C143" s="2" t="s">
         <v>85</v>
@@ -3940,7 +4050,7 @@
         <v>123</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C144" s="2" t="s">
         <v>86</v>
@@ -3951,7 +4061,7 @@
         <v>123</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C145" s="2" t="s">
         <v>87</v>
@@ -3962,7 +4072,7 @@
         <v>123</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C146" s="2" t="s">
         <v>88</v>
@@ -3973,7 +4083,7 @@
         <v>123</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="C147" s="2" t="s">
         <v>89</v>
@@ -3984,7 +4094,7 @@
         <v>123</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="C148" s="2" t="s">
         <v>90</v>
@@ -3995,7 +4105,7 @@
         <v>123</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="C149" s="2" t="s">
         <v>91</v>
@@ -4006,7 +4116,7 @@
         <v>123</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="C150" s="2" t="s">
         <v>92</v>
@@ -4017,7 +4127,7 @@
         <v>123</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="C151" s="2" t="s">
         <v>93</v>
@@ -4028,7 +4138,7 @@
         <v>123</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="C152" s="2" t="s">
         <v>94</v>
@@ -4039,7 +4149,7 @@
         <v>123</v>
       </c>
       <c r="B153" s="2" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="C153" s="2" t="s">
         <v>95</v>
@@ -4050,7 +4160,7 @@
         <v>123</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="C154" s="2" t="s">
         <v>21</v>
@@ -4061,7 +4171,7 @@
         <v>123</v>
       </c>
       <c r="B155" s="2" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C155" s="2" t="s">
         <v>23</v>
@@ -4072,7 +4182,7 @@
         <v>129</v>
       </c>
       <c r="B156" s="2" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C156" s="2" t="s">
         <v>125</v>
@@ -4083,7 +4193,7 @@
         <v>129</v>
       </c>
       <c r="B157" s="2" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="C157" s="2" t="s">
         <v>126</v>
@@ -4094,7 +4204,7 @@
         <v>129</v>
       </c>
       <c r="B158" s="2" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="C158" s="2" t="s">
         <v>127</v>
@@ -4105,7 +4215,7 @@
         <v>129</v>
       </c>
       <c r="B159" s="2" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="C159" s="2" t="s">
         <v>128</v>
@@ -4116,7 +4226,7 @@
         <v>129</v>
       </c>
       <c r="B160" s="2" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C160" s="2" t="s">
         <v>118</v>
@@ -4127,7 +4237,7 @@
         <v>129</v>
       </c>
       <c r="B161" s="2" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C161" s="2" t="s">
         <v>23</v>
@@ -4138,7 +4248,7 @@
         <v>135</v>
       </c>
       <c r="B162" s="2" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="C162" s="2" t="s">
         <v>130</v>
@@ -4149,7 +4259,7 @@
         <v>135</v>
       </c>
       <c r="B163" s="2" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="C163" s="2" t="s">
         <v>131</v>
@@ -4160,7 +4270,7 @@
         <v>135</v>
       </c>
       <c r="B164" s="2" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="C164" s="2" t="s">
         <v>132</v>
@@ -4171,7 +4281,7 @@
         <v>135</v>
       </c>
       <c r="B165" s="2" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C165" s="2" t="s">
         <v>133</v>
@@ -4182,7 +4292,7 @@
         <v>135</v>
       </c>
       <c r="B166" s="2" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C166" s="2" t="s">
         <v>134</v>
@@ -4193,7 +4303,7 @@
         <v>135</v>
       </c>
       <c r="B167" s="2" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C167" s="2" t="s">
         <v>21</v>
@@ -4204,7 +4314,7 @@
         <v>135</v>
       </c>
       <c r="B168" s="2" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C168" s="2" t="s">
         <v>23</v>
@@ -4215,7 +4325,7 @@
         <v>135</v>
       </c>
       <c r="B169" s="2" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="C169" s="2" t="s">
         <v>22</v>
@@ -4226,7 +4336,7 @@
         <v>138</v>
       </c>
       <c r="B170" s="2" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C170" s="2" t="s">
         <v>136</v>
@@ -4237,7 +4347,7 @@
         <v>138</v>
       </c>
       <c r="B171" s="2" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="C171" s="2" t="s">
         <v>137</v>
@@ -4248,7 +4358,7 @@
         <v>138</v>
       </c>
       <c r="B172" s="2" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C172" s="2" t="s">
         <v>23</v>
@@ -4259,7 +4369,7 @@
         <v>140</v>
       </c>
       <c r="B173" s="2" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="C173" s="2" t="s">
         <v>20</v>
@@ -4270,7 +4380,7 @@
         <v>140</v>
       </c>
       <c r="B174" s="2" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C174" s="2" t="s">
         <v>19</v>
@@ -4281,7 +4391,7 @@
         <v>140</v>
       </c>
       <c r="B175" s="2" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="C175" s="2" t="s">
         <v>139</v>
@@ -4292,7 +4402,7 @@
         <v>140</v>
       </c>
       <c r="B176" s="2" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C176" s="2" t="s">
         <v>23</v>
@@ -4303,7 +4413,7 @@
         <v>144</v>
       </c>
       <c r="B177" s="2" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="C177" s="2" t="s">
         <v>141</v>
@@ -4314,7 +4424,7 @@
         <v>144</v>
       </c>
       <c r="B178" s="2" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="C178" s="2" t="s">
         <v>142</v>
@@ -4325,7 +4435,7 @@
         <v>144</v>
       </c>
       <c r="B179" s="2" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="C179" s="2" t="s">
         <v>143</v>
@@ -4336,7 +4446,7 @@
         <v>144</v>
       </c>
       <c r="B180" s="2" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C180" s="2" t="s">
         <v>16</v>
@@ -4347,7 +4457,7 @@
         <v>144</v>
       </c>
       <c r="B181" s="2" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C181" s="2" t="s">
         <v>23</v>
@@ -4358,7 +4468,7 @@
         <v>144</v>
       </c>
       <c r="B182" s="2" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="C182" s="2" t="s">
         <v>22</v>
@@ -4369,7 +4479,7 @@
         <v>145</v>
       </c>
       <c r="B183" s="2" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C183" s="2" t="s">
         <v>146</v>
@@ -4380,7 +4490,7 @@
         <v>145</v>
       </c>
       <c r="B184" s="2" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="C184" s="2" t="s">
         <v>147</v>
@@ -4391,7 +4501,7 @@
         <v>145</v>
       </c>
       <c r="B185" s="2" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="C185" s="2" t="s">
         <v>148</v>
@@ -4402,7 +4512,7 @@
         <v>145</v>
       </c>
       <c r="B186" s="2" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="C186" s="2" t="s">
         <v>149</v>
@@ -4413,7 +4523,7 @@
         <v>145</v>
       </c>
       <c r="B187" s="2" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C187" s="2" t="s">
         <v>21</v>
@@ -4424,7 +4534,7 @@
         <v>145</v>
       </c>
       <c r="B188" s="2" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C188" s="2" t="s">
         <v>23</v>
@@ -4435,7 +4545,7 @@
         <v>155</v>
       </c>
       <c r="B189" s="2" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="C189" s="2" t="s">
         <v>150</v>
@@ -4446,7 +4556,7 @@
         <v>155</v>
       </c>
       <c r="B190" s="2" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="C190" s="2" t="s">
         <v>151</v>
@@ -4457,7 +4567,7 @@
         <v>155</v>
       </c>
       <c r="B191" s="2" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="C191" s="2" t="s">
         <v>152</v>
@@ -4468,7 +4578,7 @@
         <v>155</v>
       </c>
       <c r="B192" s="2" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C192" s="2" t="s">
         <v>153</v>
@@ -4479,7 +4589,7 @@
         <v>155</v>
       </c>
       <c r="B193" s="2" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C193" s="2" t="s">
         <v>154</v>
@@ -4490,7 +4600,7 @@
         <v>155</v>
       </c>
       <c r="B194" s="2" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C194" s="2" t="s">
         <v>23</v>
@@ -4501,7 +4611,7 @@
         <v>155</v>
       </c>
       <c r="B195" s="2" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="C195" s="2" t="s">
         <v>22</v>
@@ -4512,7 +4622,7 @@
         <v>158</v>
       </c>
       <c r="B196" s="2" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C196" s="2" t="s">
         <v>146</v>
@@ -4523,7 +4633,7 @@
         <v>158</v>
       </c>
       <c r="B197" s="2" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="C197" s="2" t="s">
         <v>156</v>
@@ -4534,7 +4644,7 @@
         <v>158</v>
       </c>
       <c r="B198" s="2" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="C198" s="2" t="s">
         <v>157</v>
@@ -4545,7 +4655,7 @@
         <v>158</v>
       </c>
       <c r="B199" s="2" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C199" s="2" t="s">
         <v>23</v>
@@ -4556,7 +4666,7 @@
         <v>158</v>
       </c>
       <c r="B200" s="2" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="C200" s="2" t="s">
         <v>22</v>
@@ -4567,7 +4677,7 @@
         <v>159</v>
       </c>
       <c r="B201" s="2" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="C201" s="2" t="s">
         <v>29</v>
@@ -4578,7 +4688,7 @@
         <v>159</v>
       </c>
       <c r="B202" s="2" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C202" s="2" t="s">
         <v>30</v>
@@ -4589,7 +4699,7 @@
         <v>161</v>
       </c>
       <c r="B203" s="2" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="C203" s="2" t="s">
         <v>29</v>
@@ -4600,7 +4710,7 @@
         <v>161</v>
       </c>
       <c r="B204" s="2" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C204" s="2" t="s">
         <v>30</v>
@@ -4611,7 +4721,7 @@
         <v>161</v>
       </c>
       <c r="B205" s="2" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="C205" s="2" t="s">
         <v>160</v>
@@ -4622,7 +4732,7 @@
         <v>162</v>
       </c>
       <c r="B206" s="2" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="C206" s="2" t="s">
         <v>15</v>
@@ -4633,7 +4743,7 @@
         <v>162</v>
       </c>
       <c r="B207" s="2" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C207" s="2" t="s">
         <v>16</v>
@@ -4644,7 +4754,7 @@
         <v>162</v>
       </c>
       <c r="B208" s="2" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="C208" s="2" t="s">
         <v>163</v>
@@ -4655,7 +4765,7 @@
         <v>162</v>
       </c>
       <c r="B209" s="2" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C209" s="2" t="s">
         <v>175</v>
@@ -4666,7 +4776,7 @@
         <v>173</v>
       </c>
       <c r="B210" s="2" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="C210" s="2" t="s">
         <v>174</v>
@@ -4677,7 +4787,7 @@
         <v>193</v>
       </c>
       <c r="B211" s="2" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="C211" s="2" t="s">
         <v>194</v>
@@ -4688,7 +4798,7 @@
         <v>193</v>
       </c>
       <c r="B212" s="2" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C212" s="2" t="s">
         <v>23</v>
@@ -4699,7 +4809,7 @@
         <v>17</v>
       </c>
       <c r="B213" s="2" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C213" s="2" t="s">
         <v>19</v>
@@ -4710,7 +4820,7 @@
         <v>17</v>
       </c>
       <c r="B214" s="2" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="C214" s="2" t="s">
         <v>20</v>
@@ -4718,87 +4828,87 @@
     </row>
     <row r="215" spans="1:3">
       <c r="A215" s="1" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B215" s="2" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="C215" s="1" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="216" spans="1:3">
       <c r="A216" s="1" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B216" s="2" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="C216" s="1" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="217" spans="1:3">
       <c r="A217" s="1" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B217" s="2" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="C217" s="1" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="218" spans="1:3">
       <c r="A218" s="1" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B218" s="2" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C218" s="1" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="219" spans="1:3">
       <c r="A219" s="1" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B219" s="2" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C219" s="1" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="220" spans="1:3">
       <c r="A220" s="1" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B220" s="2" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C220" s="1" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="221" spans="1:3">
       <c r="A221" s="1" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B221" s="2" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="C221" s="1" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
     <row r="222" spans="1:3">
       <c r="A222" s="1" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B222" s="2" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="C222" s="1" t="s">
         <v>21</v>
@@ -4806,21 +4916,21 @@
     </row>
     <row r="223" spans="1:3">
       <c r="A223" s="1" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B223" s="2" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="C223" s="1" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="224" spans="1:3">
       <c r="A224" s="1" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B224" s="2" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C224" s="1" t="s">
         <v>23</v>
@@ -4828,10 +4938,10 @@
     </row>
     <row r="225" spans="1:3">
       <c r="A225" s="1" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B225" s="2" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C225" s="1" t="s">
         <v>122</v>
@@ -4839,54 +4949,54 @@
     </row>
     <row r="226" spans="1:3">
       <c r="A226" s="1" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B226" s="2" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="C226" s="1" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="227" spans="1:3">
       <c r="A227" s="1" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B227" s="2" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="C227" s="1" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="228" spans="1:3">
       <c r="A228" s="1" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B228" s="2" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="C228" s="1" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
     </row>
     <row r="229" spans="1:3">
       <c r="A229" s="1" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B229" s="2" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C229" s="1" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="230" spans="1:3">
       <c r="A230" s="1" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B230" s="2" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C230" s="1" t="s">
         <v>21</v>
@@ -4894,10 +5004,10 @@
     </row>
     <row r="231" spans="1:3">
       <c r="A231" s="1" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B231" s="2" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C231" s="1" t="s">
         <v>23</v>
@@ -4931,13 +5041,13 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
+        <v>294</v>
+      </c>
+      <c r="B1" t="s">
         <v>295</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>296</v>
-      </c>
-      <c r="C1" t="s">
-        <v>297</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -4945,12 +5055,12 @@
         <v>196</v>
       </c>
       <c r="B2" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B3">
         <v>20140513</v>
@@ -4958,18 +5068,561 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
+        <v>299</v>
+      </c>
+      <c r="C4" t="s">
         <v>300</v>
-      </c>
-      <c r="C4" t="s">
-        <v>301</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
+        <v>301</v>
+      </c>
+      <c r="B5" t="s">
         <v>302</v>
       </c>
-      <c r="B5" t="s">
-        <v>303</v>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B65"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="2" max="2" width="40.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="14" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" s="15" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="15" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="15" t="s">
+        <v>284</v>
+      </c>
+      <c r="B4" s="15" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="17" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="17" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" s="17" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" s="17" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="17" t="s">
+        <v>284</v>
+      </c>
+      <c r="B9" s="17" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" s="17" t="s">
+        <v>202</v>
+      </c>
+      <c r="B10" s="17" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" s="17" t="s">
+        <v>284</v>
+      </c>
+      <c r="B11" s="17" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" s="17" t="s">
+        <v>202</v>
+      </c>
+      <c r="B12" s="17" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="B13" s="17" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" s="17" t="s">
+        <v>284</v>
+      </c>
+      <c r="B14" s="17" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="B15" s="17" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" s="17" t="s">
+        <v>284</v>
+      </c>
+      <c r="B16" s="17" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" s="17" t="s">
+        <v>284</v>
+      </c>
+      <c r="B17" s="17" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="30">
+      <c r="A18" s="17" t="s">
+        <v>289</v>
+      </c>
+      <c r="B18" s="17" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="B19" s="17" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" s="17" t="s">
+        <v>284</v>
+      </c>
+      <c r="B20" s="17" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" s="17" t="s">
+        <v>284</v>
+      </c>
+      <c r="B21" s="17" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="B22" s="17" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" s="17" t="s">
+        <v>284</v>
+      </c>
+      <c r="B23" s="17" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" ht="30">
+      <c r="A24" s="17" t="s">
+        <v>289</v>
+      </c>
+      <c r="B24" s="17" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="B25" s="17" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26" s="17" t="s">
+        <v>284</v>
+      </c>
+      <c r="B26" s="17" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27" s="17" t="s">
+        <v>284</v>
+      </c>
+      <c r="B27" s="17" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28" s="17" t="s">
+        <v>284</v>
+      </c>
+      <c r="B28" s="17" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
+      <c r="A29" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="B29" s="17" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
+      <c r="A30" s="17" t="s">
+        <v>284</v>
+      </c>
+      <c r="B30" s="17" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2">
+      <c r="A31" s="17" t="s">
+        <v>284</v>
+      </c>
+      <c r="B31" s="17" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2">
+      <c r="A32" s="17" t="s">
+        <v>284</v>
+      </c>
+      <c r="B32" s="17" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
+      <c r="A33" s="17" t="s">
+        <v>284</v>
+      </c>
+      <c r="B33" s="17" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2">
+      <c r="A34" s="17" t="s">
+        <v>290</v>
+      </c>
+      <c r="B34" s="17" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2">
+      <c r="A35" s="17" t="s">
+        <v>290</v>
+      </c>
+      <c r="B35" s="17" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2">
+      <c r="A36" s="17" t="s">
+        <v>284</v>
+      </c>
+      <c r="B36" s="17" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2">
+      <c r="A37" s="17" t="s">
+        <v>284</v>
+      </c>
+      <c r="B37" s="17" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2">
+      <c r="A38" s="17" t="s">
+        <v>284</v>
+      </c>
+      <c r="B38" s="17" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2">
+      <c r="A39" s="17" t="s">
+        <v>284</v>
+      </c>
+      <c r="B39" s="17" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" ht="30">
+      <c r="A40" s="17" t="s">
+        <v>289</v>
+      </c>
+      <c r="B40" s="17" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2">
+      <c r="A41" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="B41" s="17" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2">
+      <c r="A42" s="17" t="s">
+        <v>284</v>
+      </c>
+      <c r="B42" s="17" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" ht="30">
+      <c r="A43" s="17" t="s">
+        <v>289</v>
+      </c>
+      <c r="B43" s="17" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2">
+      <c r="A44" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="B44" s="17" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2">
+      <c r="A45" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="B45" s="17" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2">
+      <c r="A46" s="18" t="s">
+        <v>284</v>
+      </c>
+      <c r="B46" s="18" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2">
+      <c r="A47" s="18" t="s">
+        <v>284</v>
+      </c>
+      <c r="B47" s="18" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2">
+      <c r="A48" s="19" t="s">
+        <v>284</v>
+      </c>
+      <c r="B48" s="19" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2">
+      <c r="A49" s="19" t="s">
+        <v>284</v>
+      </c>
+      <c r="B49" s="19" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2">
+      <c r="A50" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="B50" s="19" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2">
+      <c r="A51" s="19" t="s">
+        <v>284</v>
+      </c>
+      <c r="B51" s="19" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2">
+      <c r="A52" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="B52" s="19" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2">
+      <c r="A53" s="19" t="s">
+        <v>290</v>
+      </c>
+      <c r="B53" s="19" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2">
+      <c r="A54" s="19" t="s">
+        <v>284</v>
+      </c>
+      <c r="B54" s="19" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2">
+      <c r="A55" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="B55" s="19" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" ht="30">
+      <c r="A56" s="19" t="s">
+        <v>289</v>
+      </c>
+      <c r="B56" s="19" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2">
+      <c r="A57" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="B57" s="19" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2">
+      <c r="A58" s="19" t="s">
+        <v>284</v>
+      </c>
+      <c r="B58" s="19" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2">
+      <c r="A59" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="B59" s="19" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2">
+      <c r="A60" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="B60" s="19" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2">
+      <c r="A61" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="B61" s="19" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2">
+      <c r="A62" s="19" t="s">
+        <v>284</v>
+      </c>
+      <c r="B62" s="19" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2">
+      <c r="A63" s="19" t="s">
+        <v>284</v>
+      </c>
+      <c r="B63" s="19" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" ht="30">
+      <c r="A64" s="19" t="s">
+        <v>356</v>
+      </c>
+      <c r="B64" s="19" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2">
+      <c r="A65" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="B65" s="19" t="s">
+        <v>358</v>
       </c>
     </row>
   </sheetData>

--- a/app/tables/femaleClients/forms/client6Month/client6Month.xlsx
+++ b/app/tables/femaleClients/forms/client6Month/client6Month.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1036" uniqueCount="360">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1035" uniqueCount="359">
   <si>
     <t>type</t>
   </si>
@@ -901,9 +901,6 @@
   </si>
   <si>
     <t xml:space="preserve">select_one </t>
-  </si>
-  <si>
-    <t>true</t>
   </si>
   <si>
     <t>data_value</t>
@@ -1223,7 +1220,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1278,6 +1275,9 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1687,10 +1687,10 @@
   <dimension ref="A1:R55"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="F2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D2" sqref="D2"/>
+      <selection pane="bottomRight" activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1770,7 +1770,7 @@
       </c>
       <c r="C2" s="1"/>
       <c r="D2" s="8" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>233</v>
@@ -1824,8 +1824,8 @@
       <c r="F5" s="3" t="s">
         <v>198</v>
       </c>
-      <c r="I5" s="12" t="s">
-        <v>291</v>
+      <c r="I5" s="20" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:18" ht="60">
@@ -2474,10 +2474,10 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>236</v>
@@ -2488,7 +2488,7 @@
         <v>26</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>19</v>
@@ -2499,7 +2499,7 @@
         <v>26</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>20</v>
@@ -2510,7 +2510,7 @@
         <v>26</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>27</v>
@@ -2521,7 +2521,7 @@
         <v>26</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>28</v>
@@ -2532,7 +2532,7 @@
         <v>31</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>29</v>
@@ -2543,7 +2543,7 @@
         <v>31</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>30</v>
@@ -2554,7 +2554,7 @@
         <v>38</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>32</v>
@@ -2565,7 +2565,7 @@
         <v>38</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>33</v>
@@ -2576,7 +2576,7 @@
         <v>38</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>34</v>
@@ -2587,7 +2587,7 @@
         <v>38</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>35</v>
@@ -2598,7 +2598,7 @@
         <v>38</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>37</v>
@@ -2609,7 +2609,7 @@
         <v>38</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>36</v>
@@ -2620,7 +2620,7 @@
         <v>39</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>15</v>
@@ -2631,7 +2631,7 @@
         <v>39</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>16</v>
@@ -2642,7 +2642,7 @@
         <v>39</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>36</v>
@@ -2653,7 +2653,7 @@
         <v>41</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>15</v>
@@ -2664,7 +2664,7 @@
         <v>41</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>42</v>
@@ -2675,7 +2675,7 @@
         <v>41</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>43</v>
@@ -2686,7 +2686,7 @@
         <v>41</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>23</v>
@@ -2697,7 +2697,7 @@
         <v>41</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>22</v>
@@ -2708,7 +2708,7 @@
         <v>45</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>19</v>
@@ -2719,7 +2719,7 @@
         <v>45</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>20</v>
@@ -2730,7 +2730,7 @@
         <v>45</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>44</v>
@@ -2741,7 +2741,7 @@
         <v>45</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C25" s="2" t="s">
         <v>23</v>
@@ -2752,7 +2752,7 @@
         <v>45</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>22</v>
@@ -2763,7 +2763,7 @@
         <v>46</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C27" s="2" t="s">
         <v>15</v>
@@ -2774,7 +2774,7 @@
         <v>46</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C28" s="2" t="s">
         <v>16</v>
@@ -2785,7 +2785,7 @@
         <v>46</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C29" s="1" t="s">
         <v>36</v>
@@ -2796,7 +2796,7 @@
         <v>46</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="C30" s="1" t="s">
         <v>22</v>
@@ -2807,7 +2807,7 @@
         <v>14</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C31" s="2" t="s">
         <v>15</v>
@@ -2818,7 +2818,7 @@
         <v>14</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C32" s="2" t="s">
         <v>16</v>
@@ -2829,7 +2829,7 @@
         <v>49</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C33" s="2" t="s">
         <v>47</v>
@@ -2840,7 +2840,7 @@
         <v>49</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="C34" s="2" t="s">
         <v>48</v>
@@ -2851,7 +2851,7 @@
         <v>49</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C35" s="1" t="s">
         <v>36</v>
@@ -2862,7 +2862,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="C36" s="1" t="s">
         <v>22</v>
@@ -2873,7 +2873,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C37" s="2" t="s">
         <v>176</v>
@@ -2884,7 +2884,7 @@
         <v>50</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C38" s="2" t="s">
         <v>51</v>
@@ -2895,7 +2895,7 @@
         <v>50</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="C39" s="2" t="s">
         <v>52</v>
@@ -2906,7 +2906,7 @@
         <v>50</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C40" s="1" t="s">
         <v>36</v>
@@ -2917,7 +2917,7 @@
         <v>50</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="C41" s="1" t="s">
         <v>22</v>
@@ -2928,7 +2928,7 @@
         <v>53</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C42" s="1" t="s">
         <v>54</v>
@@ -2939,7 +2939,7 @@
         <v>53</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="C43" s="1" t="s">
         <v>55</v>
@@ -2950,7 +2950,7 @@
         <v>53</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="C44" s="1" t="s">
         <v>56</v>
@@ -2961,7 +2961,7 @@
         <v>53</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="C45" s="1" t="s">
         <v>21</v>
@@ -2972,7 +2972,7 @@
         <v>53</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C46" s="1" t="s">
         <v>36</v>
@@ -2983,7 +2983,7 @@
         <v>53</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="C47" s="1" t="s">
         <v>22</v>
@@ -2994,7 +2994,7 @@
         <v>57</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C48" s="2" t="s">
         <v>177</v>
@@ -3005,7 +3005,7 @@
         <v>57</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C49" s="2" t="s">
         <v>58</v>
@@ -3016,7 +3016,7 @@
         <v>57</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="C50" s="2" t="s">
         <v>178</v>
@@ -3027,7 +3027,7 @@
         <v>57</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C51" s="1" t="s">
         <v>36</v>
@@ -3038,7 +3038,7 @@
         <v>57</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="C52" s="1" t="s">
         <v>22</v>
@@ -3049,7 +3049,7 @@
         <v>59</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C53" s="2" t="s">
         <v>60</v>
@@ -3060,7 +3060,7 @@
         <v>59</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="C54" s="2" t="s">
         <v>61</v>
@@ -3071,7 +3071,7 @@
         <v>59</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="C55" s="2" t="s">
         <v>62</v>
@@ -3082,7 +3082,7 @@
         <v>59</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="C56" s="2" t="s">
         <v>63</v>
@@ -3093,7 +3093,7 @@
         <v>59</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C57" s="2" t="s">
         <v>64</v>
@@ -3104,7 +3104,7 @@
         <v>59</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="C58" s="2" t="s">
         <v>65</v>
@@ -3115,7 +3115,7 @@
         <v>59</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C59" s="2" t="s">
         <v>37</v>
@@ -3126,7 +3126,7 @@
         <v>59</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C60" s="2" t="s">
         <v>66</v>
@@ -3137,7 +3137,7 @@
         <v>67</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C61" s="2" t="s">
         <v>60</v>
@@ -3148,7 +3148,7 @@
         <v>67</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="C62" s="2" t="s">
         <v>61</v>
@@ -3159,7 +3159,7 @@
         <v>67</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="C63" s="2" t="s">
         <v>62</v>
@@ -3170,7 +3170,7 @@
         <v>67</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="C64" s="2" t="s">
         <v>63</v>
@@ -3181,7 +3181,7 @@
         <v>67</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C65" s="2" t="s">
         <v>64</v>
@@ -3192,7 +3192,7 @@
         <v>67</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="C66" s="2" t="s">
         <v>65</v>
@@ -3203,7 +3203,7 @@
         <v>67</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C67" s="2" t="s">
         <v>37</v>
@@ -3214,7 +3214,7 @@
         <v>67</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="C68" s="2" t="s">
         <v>68</v>
@@ -3225,7 +3225,7 @@
         <v>67</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C69" s="2" t="s">
         <v>66</v>
@@ -3236,7 +3236,7 @@
         <v>69</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C70" s="2" t="s">
         <v>15</v>
@@ -3247,7 +3247,7 @@
         <v>69</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C71" s="2" t="s">
         <v>16</v>
@@ -3258,7 +3258,7 @@
         <v>69</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C72" s="2" t="s">
         <v>70</v>
@@ -3269,7 +3269,7 @@
         <v>69</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C73" s="1" t="s">
         <v>36</v>
@@ -3280,7 +3280,7 @@
         <v>69</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="C74" s="1" t="s">
         <v>22</v>
@@ -3324,7 +3324,7 @@
         <v>71</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C78" s="1" t="s">
         <v>36</v>
@@ -3335,7 +3335,7 @@
         <v>71</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="C79" s="1" t="s">
         <v>22</v>
@@ -3346,7 +3346,7 @@
         <v>73</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C80" s="2" t="s">
         <v>74</v>
@@ -3357,7 +3357,7 @@
         <v>73</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="C81" s="2" t="s">
         <v>75</v>
@@ -3368,7 +3368,7 @@
         <v>73</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="C82" s="1" t="s">
         <v>76</v>
@@ -3379,7 +3379,7 @@
         <v>73</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C83" s="1" t="s">
         <v>23</v>
@@ -3390,7 +3390,7 @@
         <v>73</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="C84" s="1" t="s">
         <v>22</v>
@@ -3401,7 +3401,7 @@
         <v>77</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C85" s="1" t="s">
         <v>78</v>
@@ -3412,7 +3412,7 @@
         <v>77</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="C86" s="1" t="s">
         <v>79</v>
@@ -3423,7 +3423,7 @@
         <v>77</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="C87" s="1" t="s">
         <v>80</v>
@@ -3434,7 +3434,7 @@
         <v>77</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="C88" s="1" t="s">
         <v>81</v>
@@ -3445,7 +3445,7 @@
         <v>77</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C89" s="1" t="s">
         <v>82</v>
@@ -3456,7 +3456,7 @@
         <v>77</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="C90" s="1" t="s">
         <v>21</v>
@@ -3467,7 +3467,7 @@
         <v>77</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C91" s="1" t="s">
         <v>23</v>
@@ -3478,7 +3478,7 @@
         <v>98</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C92" s="1" t="s">
         <v>83</v>
@@ -3489,7 +3489,7 @@
         <v>98</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="C93" s="1" t="s">
         <v>84</v>
@@ -3500,7 +3500,7 @@
         <v>98</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="C94" s="1" t="s">
         <v>85</v>
@@ -3511,7 +3511,7 @@
         <v>98</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="C95" s="1" t="s">
         <v>86</v>
@@ -3522,7 +3522,7 @@
         <v>98</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C96" s="1" t="s">
         <v>87</v>
@@ -3533,7 +3533,7 @@
         <v>98</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="C97" s="1" t="s">
         <v>88</v>
@@ -3544,7 +3544,7 @@
         <v>98</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C98" s="1" t="s">
         <v>89</v>
@@ -3555,7 +3555,7 @@
         <v>98</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="C99" s="1" t="s">
         <v>90</v>
@@ -3566,7 +3566,7 @@
         <v>98</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="C100" s="1" t="s">
         <v>91</v>
@@ -3577,7 +3577,7 @@
         <v>98</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="C101" s="1" t="s">
         <v>92</v>
@@ -3588,7 +3588,7 @@
         <v>98</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="C102" s="1" t="s">
         <v>93</v>
@@ -3599,7 +3599,7 @@
         <v>98</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="C103" s="1" t="s">
         <v>94</v>
@@ -3610,7 +3610,7 @@
         <v>98</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="C104" s="1" t="s">
         <v>95</v>
@@ -3621,7 +3621,7 @@
         <v>98</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="C105" s="1" t="s">
         <v>96</v>
@@ -3632,7 +3632,7 @@
         <v>98</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="C106" s="1" t="s">
         <v>21</v>
@@ -3643,7 +3643,7 @@
         <v>98</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="C107" s="1" t="s">
         <v>97</v>
@@ -3654,7 +3654,7 @@
         <v>98</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C108" s="1" t="s">
         <v>23</v>
@@ -3665,7 +3665,7 @@
         <v>113</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C109" s="1" t="s">
         <v>99</v>
@@ -3676,7 +3676,7 @@
         <v>113</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="C110" s="1" t="s">
         <v>100</v>
@@ -3687,7 +3687,7 @@
         <v>113</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="C111" s="1" t="s">
         <v>101</v>
@@ -3698,7 +3698,7 @@
         <v>113</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="C112" s="1" t="s">
         <v>102</v>
@@ -3709,7 +3709,7 @@
         <v>113</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C113" s="1" t="s">
         <v>103</v>
@@ -3720,7 +3720,7 @@
         <v>113</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="C114" s="1" t="s">
         <v>104</v>
@@ -3731,7 +3731,7 @@
         <v>113</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C115" s="1" t="s">
         <v>105</v>
@@ -3742,7 +3742,7 @@
         <v>113</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="C116" s="1" t="s">
         <v>106</v>
@@ -3753,7 +3753,7 @@
         <v>113</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="C117" s="1" t="s">
         <v>107</v>
@@ -3764,7 +3764,7 @@
         <v>113</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="C118" s="1" t="s">
         <v>108</v>
@@ -3775,7 +3775,7 @@
         <v>113</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="C119" s="1" t="s">
         <v>109</v>
@@ -3786,7 +3786,7 @@
         <v>113</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="C120" s="1" t="s">
         <v>110</v>
@@ -3797,7 +3797,7 @@
         <v>113</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="C121" s="1" t="s">
         <v>111</v>
@@ -3808,7 +3808,7 @@
         <v>113</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="C122" s="1" t="s">
         <v>112</v>
@@ -3819,7 +3819,7 @@
         <v>113</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="C123" s="1" t="s">
         <v>21</v>
@@ -3830,7 +3830,7 @@
         <v>113</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C124" s="1" t="s">
         <v>23</v>
@@ -3841,7 +3841,7 @@
         <v>114</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C125" s="1" t="s">
         <v>78</v>
@@ -3852,7 +3852,7 @@
         <v>114</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="C126" s="1" t="s">
         <v>79</v>
@@ -3863,7 +3863,7 @@
         <v>114</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="C127" s="1" t="s">
         <v>80</v>
@@ -3874,7 +3874,7 @@
         <v>114</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="C128" s="1" t="s">
         <v>81</v>
@@ -3885,7 +3885,7 @@
         <v>114</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C129" s="1" t="s">
         <v>82</v>
@@ -3896,7 +3896,7 @@
         <v>114</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="C130" s="1" t="s">
         <v>21</v>
@@ -3907,7 +3907,7 @@
         <v>114</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C131" s="1" t="s">
         <v>23</v>
@@ -3918,7 +3918,7 @@
         <v>117</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C132" s="1" t="s">
         <v>115</v>
@@ -3929,7 +3929,7 @@
         <v>117</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C133" s="1" t="s">
         <v>116</v>
@@ -3940,7 +3940,7 @@
         <v>117</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C134" s="1" t="s">
         <v>23</v>
@@ -3951,7 +3951,7 @@
         <v>117</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="C135" s="1" t="s">
         <v>22</v>
@@ -3962,7 +3962,7 @@
         <v>121</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C136" s="1" t="s">
         <v>118</v>
@@ -3973,7 +3973,7 @@
         <v>121</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C137" s="1" t="s">
         <v>119</v>
@@ -3984,7 +3984,7 @@
         <v>121</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="C138" s="1" t="s">
         <v>120</v>
@@ -3995,7 +3995,7 @@
         <v>121</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C139" s="2" t="s">
         <v>23</v>
@@ -4006,7 +4006,7 @@
         <v>123</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C140" s="2" t="s">
         <v>122</v>
@@ -4017,7 +4017,7 @@
         <v>123</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C141" s="2" t="s">
         <v>83</v>
@@ -4028,7 +4028,7 @@
         <v>123</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="C142" s="2" t="s">
         <v>84</v>
@@ -4039,7 +4039,7 @@
         <v>123</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="C143" s="2" t="s">
         <v>85</v>
@@ -4050,7 +4050,7 @@
         <v>123</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="C144" s="2" t="s">
         <v>86</v>
@@ -4061,7 +4061,7 @@
         <v>123</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C145" s="2" t="s">
         <v>87</v>
@@ -4072,7 +4072,7 @@
         <v>123</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="C146" s="2" t="s">
         <v>88</v>
@@ -4083,7 +4083,7 @@
         <v>123</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C147" s="2" t="s">
         <v>89</v>
@@ -4094,7 +4094,7 @@
         <v>123</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="C148" s="2" t="s">
         <v>90</v>
@@ -4105,7 +4105,7 @@
         <v>123</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="C149" s="2" t="s">
         <v>91</v>
@@ -4116,7 +4116,7 @@
         <v>123</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="C150" s="2" t="s">
         <v>92</v>
@@ -4127,7 +4127,7 @@
         <v>123</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="C151" s="2" t="s">
         <v>93</v>
@@ -4138,7 +4138,7 @@
         <v>123</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="C152" s="2" t="s">
         <v>94</v>
@@ -4149,7 +4149,7 @@
         <v>123</v>
       </c>
       <c r="B153" s="2" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="C153" s="2" t="s">
         <v>95</v>
@@ -4160,7 +4160,7 @@
         <v>123</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="C154" s="2" t="s">
         <v>21</v>
@@ -4171,7 +4171,7 @@
         <v>123</v>
       </c>
       <c r="B155" s="2" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C155" s="2" t="s">
         <v>23</v>
@@ -4182,7 +4182,7 @@
         <v>129</v>
       </c>
       <c r="B156" s="2" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="C156" s="2" t="s">
         <v>125</v>
@@ -4193,7 +4193,7 @@
         <v>129</v>
       </c>
       <c r="B157" s="2" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="C157" s="2" t="s">
         <v>126</v>
@@ -4204,7 +4204,7 @@
         <v>129</v>
       </c>
       <c r="B158" s="2" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="C158" s="2" t="s">
         <v>127</v>
@@ -4215,7 +4215,7 @@
         <v>129</v>
       </c>
       <c r="B159" s="2" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C159" s="2" t="s">
         <v>128</v>
@@ -4226,7 +4226,7 @@
         <v>129</v>
       </c>
       <c r="B160" s="2" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C160" s="2" t="s">
         <v>118</v>
@@ -4237,7 +4237,7 @@
         <v>129</v>
       </c>
       <c r="B161" s="2" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C161" s="2" t="s">
         <v>23</v>
@@ -4248,7 +4248,7 @@
         <v>135</v>
       </c>
       <c r="B162" s="2" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C162" s="2" t="s">
         <v>130</v>
@@ -4259,7 +4259,7 @@
         <v>135</v>
       </c>
       <c r="B163" s="2" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="C163" s="2" t="s">
         <v>131</v>
@@ -4270,7 +4270,7 @@
         <v>135</v>
       </c>
       <c r="B164" s="2" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="C164" s="2" t="s">
         <v>132</v>
@@ -4281,7 +4281,7 @@
         <v>135</v>
       </c>
       <c r="B165" s="2" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="C165" s="2" t="s">
         <v>133</v>
@@ -4292,7 +4292,7 @@
         <v>135</v>
       </c>
       <c r="B166" s="2" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C166" s="2" t="s">
         <v>134</v>
@@ -4303,7 +4303,7 @@
         <v>135</v>
       </c>
       <c r="B167" s="2" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="C167" s="2" t="s">
         <v>21</v>
@@ -4314,7 +4314,7 @@
         <v>135</v>
       </c>
       <c r="B168" s="2" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C168" s="2" t="s">
         <v>23</v>
@@ -4325,7 +4325,7 @@
         <v>135</v>
       </c>
       <c r="B169" s="2" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="C169" s="2" t="s">
         <v>22</v>
@@ -4336,7 +4336,7 @@
         <v>138</v>
       </c>
       <c r="B170" s="2" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C170" s="2" t="s">
         <v>136</v>
@@ -4347,7 +4347,7 @@
         <v>138</v>
       </c>
       <c r="B171" s="2" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C171" s="2" t="s">
         <v>137</v>
@@ -4358,7 +4358,7 @@
         <v>138</v>
       </c>
       <c r="B172" s="2" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C172" s="2" t="s">
         <v>23</v>
@@ -4369,7 +4369,7 @@
         <v>140</v>
       </c>
       <c r="B173" s="2" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C173" s="2" t="s">
         <v>20</v>
@@ -4380,7 +4380,7 @@
         <v>140</v>
       </c>
       <c r="B174" s="2" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C174" s="2" t="s">
         <v>19</v>
@@ -4391,7 +4391,7 @@
         <v>140</v>
       </c>
       <c r="B175" s="2" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="C175" s="2" t="s">
         <v>139</v>
@@ -4402,7 +4402,7 @@
         <v>140</v>
       </c>
       <c r="B176" s="2" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C176" s="2" t="s">
         <v>23</v>
@@ -4413,7 +4413,7 @@
         <v>144</v>
       </c>
       <c r="B177" s="2" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C177" s="2" t="s">
         <v>141</v>
@@ -4424,7 +4424,7 @@
         <v>144</v>
       </c>
       <c r="B178" s="2" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="C178" s="2" t="s">
         <v>142</v>
@@ -4435,7 +4435,7 @@
         <v>144</v>
       </c>
       <c r="B179" s="2" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="C179" s="2" t="s">
         <v>143</v>
@@ -4446,7 +4446,7 @@
         <v>144</v>
       </c>
       <c r="B180" s="2" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C180" s="2" t="s">
         <v>16</v>
@@ -4457,7 +4457,7 @@
         <v>144</v>
       </c>
       <c r="B181" s="2" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C181" s="2" t="s">
         <v>23</v>
@@ -4468,7 +4468,7 @@
         <v>144</v>
       </c>
       <c r="B182" s="2" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="C182" s="2" t="s">
         <v>22</v>
@@ -4479,7 +4479,7 @@
         <v>145</v>
       </c>
       <c r="B183" s="2" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C183" s="2" t="s">
         <v>146</v>
@@ -4490,7 +4490,7 @@
         <v>145</v>
       </c>
       <c r="B184" s="2" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C184" s="2" t="s">
         <v>147</v>
@@ -4501,7 +4501,7 @@
         <v>145</v>
       </c>
       <c r="B185" s="2" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="C185" s="2" t="s">
         <v>148</v>
@@ -4512,7 +4512,7 @@
         <v>145</v>
       </c>
       <c r="B186" s="2" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="C186" s="2" t="s">
         <v>149</v>
@@ -4523,7 +4523,7 @@
         <v>145</v>
       </c>
       <c r="B187" s="2" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="C187" s="2" t="s">
         <v>21</v>
@@ -4534,7 +4534,7 @@
         <v>145</v>
       </c>
       <c r="B188" s="2" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C188" s="2" t="s">
         <v>23</v>
@@ -4545,7 +4545,7 @@
         <v>155</v>
       </c>
       <c r="B189" s="2" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C189" s="2" t="s">
         <v>150</v>
@@ -4556,7 +4556,7 @@
         <v>155</v>
       </c>
       <c r="B190" s="2" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="C190" s="2" t="s">
         <v>151</v>
@@ -4567,7 +4567,7 @@
         <v>155</v>
       </c>
       <c r="B191" s="2" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="C191" s="2" t="s">
         <v>152</v>
@@ -4578,7 +4578,7 @@
         <v>155</v>
       </c>
       <c r="B192" s="2" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="C192" s="2" t="s">
         <v>153</v>
@@ -4589,7 +4589,7 @@
         <v>155</v>
       </c>
       <c r="B193" s="2" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C193" s="2" t="s">
         <v>154</v>
@@ -4600,7 +4600,7 @@
         <v>155</v>
       </c>
       <c r="B194" s="2" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C194" s="2" t="s">
         <v>23</v>
@@ -4611,7 +4611,7 @@
         <v>155</v>
       </c>
       <c r="B195" s="2" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="C195" s="2" t="s">
         <v>22</v>
@@ -4622,7 +4622,7 @@
         <v>158</v>
       </c>
       <c r="B196" s="2" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C196" s="2" t="s">
         <v>146</v>
@@ -4633,7 +4633,7 @@
         <v>158</v>
       </c>
       <c r="B197" s="2" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C197" s="2" t="s">
         <v>156</v>
@@ -4644,7 +4644,7 @@
         <v>158</v>
       </c>
       <c r="B198" s="2" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="C198" s="2" t="s">
         <v>157</v>
@@ -4655,7 +4655,7 @@
         <v>158</v>
       </c>
       <c r="B199" s="2" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C199" s="2" t="s">
         <v>23</v>
@@ -4666,7 +4666,7 @@
         <v>158</v>
       </c>
       <c r="B200" s="2" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="C200" s="2" t="s">
         <v>22</v>
@@ -4677,7 +4677,7 @@
         <v>159</v>
       </c>
       <c r="B201" s="2" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C201" s="2" t="s">
         <v>29</v>
@@ -4688,7 +4688,7 @@
         <v>159</v>
       </c>
       <c r="B202" s="2" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C202" s="2" t="s">
         <v>30</v>
@@ -4699,7 +4699,7 @@
         <v>161</v>
       </c>
       <c r="B203" s="2" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C203" s="2" t="s">
         <v>29</v>
@@ -4710,7 +4710,7 @@
         <v>161</v>
       </c>
       <c r="B204" s="2" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C204" s="2" t="s">
         <v>30</v>
@@ -4721,7 +4721,7 @@
         <v>161</v>
       </c>
       <c r="B205" s="2" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="C205" s="2" t="s">
         <v>160</v>
@@ -4732,7 +4732,7 @@
         <v>162</v>
       </c>
       <c r="B206" s="2" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C206" s="2" t="s">
         <v>15</v>
@@ -4743,7 +4743,7 @@
         <v>162</v>
       </c>
       <c r="B207" s="2" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C207" s="2" t="s">
         <v>16</v>
@@ -4754,7 +4754,7 @@
         <v>162</v>
       </c>
       <c r="B208" s="2" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="C208" s="2" t="s">
         <v>163</v>
@@ -4765,7 +4765,7 @@
         <v>162</v>
       </c>
       <c r="B209" s="2" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="C209" s="2" t="s">
         <v>175</v>
@@ -4776,7 +4776,7 @@
         <v>173</v>
       </c>
       <c r="B210" s="2" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C210" s="2" t="s">
         <v>174</v>
@@ -4787,7 +4787,7 @@
         <v>193</v>
       </c>
       <c r="B211" s="2" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C211" s="2" t="s">
         <v>194</v>
@@ -4798,7 +4798,7 @@
         <v>193</v>
       </c>
       <c r="B212" s="2" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C212" s="2" t="s">
         <v>23</v>
@@ -4809,7 +4809,7 @@
         <v>17</v>
       </c>
       <c r="B213" s="2" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C213" s="2" t="s">
         <v>19</v>
@@ -4820,7 +4820,7 @@
         <v>17</v>
       </c>
       <c r="B214" s="2" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C214" s="2" t="s">
         <v>20</v>
@@ -4831,10 +4831,10 @@
         <v>287</v>
       </c>
       <c r="B215" s="2" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C215" s="1" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="216" spans="1:3">
@@ -4842,10 +4842,10 @@
         <v>287</v>
       </c>
       <c r="B216" s="2" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="C216" s="1" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="217" spans="1:3">
@@ -4853,10 +4853,10 @@
         <v>287</v>
       </c>
       <c r="B217" s="2" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="C217" s="1" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="218" spans="1:3">
@@ -4864,10 +4864,10 @@
         <v>287</v>
       </c>
       <c r="B218" s="2" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="C218" s="1" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="219" spans="1:3">
@@ -4875,10 +4875,10 @@
         <v>287</v>
       </c>
       <c r="B219" s="2" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C219" s="1" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="220" spans="1:3">
@@ -4886,10 +4886,10 @@
         <v>287</v>
       </c>
       <c r="B220" s="2" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="C220" s="1" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="221" spans="1:3">
@@ -4897,10 +4897,10 @@
         <v>287</v>
       </c>
       <c r="B221" s="2" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C221" s="1" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="222" spans="1:3">
@@ -4908,7 +4908,7 @@
         <v>287</v>
       </c>
       <c r="B222" s="2" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="C222" s="1" t="s">
         <v>21</v>
@@ -4919,10 +4919,10 @@
         <v>287</v>
       </c>
       <c r="B223" s="2" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="C223" s="1" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
     <row r="224" spans="1:3">
@@ -4930,7 +4930,7 @@
         <v>287</v>
       </c>
       <c r="B224" s="2" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C224" s="1" t="s">
         <v>23</v>
@@ -4941,7 +4941,7 @@
         <v>288</v>
       </c>
       <c r="B225" s="2" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C225" s="1" t="s">
         <v>122</v>
@@ -4952,10 +4952,10 @@
         <v>288</v>
       </c>
       <c r="B226" s="2" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C226" s="1" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="227" spans="1:3">
@@ -4963,10 +4963,10 @@
         <v>288</v>
       </c>
       <c r="B227" s="2" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="C227" s="1" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="228" spans="1:3">
@@ -4974,10 +4974,10 @@
         <v>288</v>
       </c>
       <c r="B228" s="2" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="C228" s="1" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="229" spans="1:3">
@@ -4985,10 +4985,10 @@
         <v>288</v>
       </c>
       <c r="B229" s="2" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="C229" s="1" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
     </row>
     <row r="230" spans="1:3">
@@ -4996,7 +4996,7 @@
         <v>288</v>
       </c>
       <c r="B230" s="2" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C230" s="1" t="s">
         <v>21</v>
@@ -5007,7 +5007,7 @@
         <v>288</v>
       </c>
       <c r="B231" s="2" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C231" s="1" t="s">
         <v>23</v>
@@ -5041,13 +5041,13 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
+        <v>293</v>
+      </c>
+      <c r="B1" t="s">
         <v>294</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>295</v>
-      </c>
-      <c r="C1" t="s">
-        <v>296</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -5055,12 +5055,12 @@
         <v>196</v>
       </c>
       <c r="B2" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B3">
         <v>20140513</v>
@@ -5068,18 +5068,18 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
+        <v>298</v>
+      </c>
+      <c r="C4" t="s">
         <v>299</v>
-      </c>
-      <c r="C4" t="s">
-        <v>300</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
+        <v>300</v>
+      </c>
+      <c r="B5" t="s">
         <v>301</v>
-      </c>
-      <c r="B5" t="s">
-        <v>302</v>
       </c>
     </row>
   </sheetData>
@@ -5126,7 +5126,7 @@
         <v>10</v>
       </c>
       <c r="B3" s="15" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -5134,7 +5134,7 @@
         <v>284</v>
       </c>
       <c r="B4" s="15" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -5142,7 +5142,7 @@
         <v>9</v>
       </c>
       <c r="B5" s="17" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -5470,7 +5470,7 @@
         <v>284</v>
       </c>
       <c r="B46" s="18" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
     </row>
     <row r="47" spans="1:2">
@@ -5478,7 +5478,7 @@
         <v>284</v>
       </c>
       <c r="B47" s="18" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="48" spans="1:2">
@@ -5486,7 +5486,7 @@
         <v>284</v>
       </c>
       <c r="B48" s="19" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
     </row>
     <row r="49" spans="1:2">
@@ -5494,7 +5494,7 @@
         <v>284</v>
       </c>
       <c r="B49" s="19" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
     </row>
     <row r="50" spans="1:2">
@@ -5502,7 +5502,7 @@
         <v>10</v>
       </c>
       <c r="B50" s="19" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
     </row>
     <row r="51" spans="1:2">
@@ -5510,7 +5510,7 @@
         <v>284</v>
       </c>
       <c r="B51" s="19" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
     </row>
     <row r="52" spans="1:2">
@@ -5518,7 +5518,7 @@
         <v>9</v>
       </c>
       <c r="B52" s="19" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
     </row>
     <row r="53" spans="1:2">
@@ -5526,7 +5526,7 @@
         <v>290</v>
       </c>
       <c r="B53" s="19" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="54" spans="1:2">
@@ -5534,7 +5534,7 @@
         <v>284</v>
       </c>
       <c r="B54" s="19" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="55" spans="1:2">
@@ -5542,7 +5542,7 @@
         <v>9</v>
       </c>
       <c r="B55" s="19" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="56" spans="1:2" ht="30">
@@ -5550,7 +5550,7 @@
         <v>289</v>
       </c>
       <c r="B56" s="19" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="57" spans="1:2">
@@ -5558,7 +5558,7 @@
         <v>9</v>
       </c>
       <c r="B57" s="19" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="58" spans="1:2">
@@ -5566,7 +5566,7 @@
         <v>284</v>
       </c>
       <c r="B58" s="19" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="59" spans="1:2">
@@ -5574,7 +5574,7 @@
         <v>10</v>
       </c>
       <c r="B59" s="19" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
     </row>
     <row r="60" spans="1:2">
@@ -5582,7 +5582,7 @@
         <v>10</v>
       </c>
       <c r="B60" s="19" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="61" spans="1:2">
@@ -5590,7 +5590,7 @@
         <v>10</v>
       </c>
       <c r="B61" s="19" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="62" spans="1:2">
@@ -5598,7 +5598,7 @@
         <v>284</v>
       </c>
       <c r="B62" s="19" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="63" spans="1:2">
@@ -5606,15 +5606,15 @@
         <v>284</v>
       </c>
       <c r="B63" s="19" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="64" spans="1:2" ht="30">
       <c r="A64" s="19" t="s">
+        <v>355</v>
+      </c>
+      <c r="B64" s="19" t="s">
         <v>356</v>
-      </c>
-      <c r="B64" s="19" t="s">
-        <v>357</v>
       </c>
     </row>
     <row r="65" spans="1:2">
@@ -5622,7 +5622,7 @@
         <v>9</v>
       </c>
       <c r="B65" s="19" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
   </sheetData>
